--- a/news_data/2017_10.xlsx
+++ b/news_data/2017_10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,12 +22,39 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도 도서관 운영 '문화체육관광 장관상'</t>
+  </si>
+  <si>
+    <t>제주도, 하반기 우수관광사업체 지정 공모</t>
+  </si>
+  <si>
+    <t>문재인 정부, 제주도에 '관광-환경-산업-재정 정책결정권 이양</t>
+  </si>
+  <si>
+    <t>아이와 떠나는 제주도 서귀포 여행, 관광명소와 흑돼지 맛집 제대로 즐기자</t>
+  </si>
+  <si>
+    <t>제주도 11월1일부터 수렵장 운영 "관광지는 안돼요"</t>
+  </si>
+  <si>
+    <t>제주도, 말레이시아 관광객 유치 나선다</t>
+  </si>
+  <si>
+    <t>제주도, 마제스타 카지노 관광진흥기금 소송서 패소</t>
+  </si>
+  <si>
+    <t>제주도평생교육진흥원, '제주관광+아카데미' 운영</t>
+  </si>
+  <si>
+    <t>올가을 놓치지 말아야 할 제주도 서귀포 관광지와 맛집은?</t>
+  </si>
+  <si>
+    <t>“제주도 쓰레기처리, 관광객은 놔두고 도민에 부담 전가”</t>
+  </si>
+  <si>
     <t>제주도, 마이스 관광객 유치 주력</t>
   </si>
   <si>
-    <t>“제주도 쓰레기처리, 관광객은 놔두고 도민에 부담 전가”</t>
-  </si>
-  <si>
     <t>"제주도 쓰레기 정책, 관광객은 놔두고 도민들에 부담 전가"</t>
   </si>
   <si>
@@ -49,34 +76,61 @@
     <t>제주도 관광버스 전복...인명피해는 없어</t>
   </si>
   <si>
-    <t>제주도, 마이스 관광객 유치 주력 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도, 마이스 관광객 유치 주력 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 제주도, 마이스 관광객 유치 주력 기자명 변미루 기자 입력 2017.10.25 17:22 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ITB ASIA 2017 홍보관 운영해외 마이스 시장 확대 목표 제주도는 마이스(MICE) 관광객을 유치하기 위해 'ITB ASIA 2017'에서 제주 홍보관을 운영한다.25일 제주컨벤션뷰로에 따르면 도내 여행사와 호텔 등 마이스 업체 9곳은 이날부터 27일까지 싱가포르에서 열리는 ITB ASIA 2017에 참가해 해외 바이어를 대상으로 마케팅을 추진한다.ITB ASIA는 해마다 열리는 아시아 관광·마이스 전문 대규모 박람회다. 올해는 76개국·800명의 마이스 업체 관계자와 1000여명의 바이어 등이 참가한다.이번 박람회는 아세안 지역뿐 아니라 프랑스·호주 등 유럽과 오세아니아 바이어들이 대거 참가해 마이스 시장 확대의 발판이 될 전망이다.이승찬 제주도 관광국장은 "아세안 지역 인센티브 투어가 지난해에 비해 2배 이상 늘었다"며 "사드 등 위기 상황에도 관광업계가 흔들리지 않도록 시장 다변화의 전환점을 마련하겠다"고 말했다. 변미루 기자 byunmiroo@nate.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>“제주도 쓰레기처리, 관광객은 놔두고 도민에 부담 전가” &lt; 도의회 &lt; 정치 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-04 10:21 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주형 구직청년 재난지원금 8365명 지급...19~29세 60% 제주대-창원대-목포해양대 ‘지역연계 상호발전’ 맞손 ‘인민의 정의’의 혼란: 다중 해석 횡단보도 건너던 중학생 택시 치여 보름만 숨져…60대 기사 입건 [날씨] 제주 강한 비 ‘시간당 20mm’ 내외…기온 큰 폭으로 뚝↓ 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 “제주도 쓰레기처리, 관광객은 놔두고 도민에 부담 전가” 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 도의회 “제주도 쓰레기처리, 관광객은 놔두고 도민에 부담 전가” 기자명 좌용철 기자					(ja3038@hanmail.net) 입력 2017.10.19 14:47 댓글 4 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 ▲ 제주도의회 환경도시위원회 홍기철 의원(화북동, 더불어민주당). ⓒ제주의소리 [행감] 홍기철 의원 “원인자 규정부터” vs 김양보 국장 “관광객에 부담금 부과 검토”제주도가 재활용품 요일별 배출제 등 쓰레기정책을 펴면서 도민들에게만 부담을 전가하고 있다는 지적이 제기됐다. 입도 관광객 등에도 일부 책임을 부담시키는 환경보전기여금 제도도입으로 이어질 수 있을지 주목된다.제주도의회 환경도시위원회 홍기철 의원(화북동, 더불어민주당)은 19일 제주도 환경보전국 소관업무에 대한 행정사무감사에서 제주도의 쓰레기 정책을 도마에 올렸다.홍 의원은 “2015년과 지난해를 비교하면 인구는 15%, 관광객은 200% 늘었는데 쓰레기는 600여톤에서 1200톤으로 2배 늘었다”면서 쓰레기 감량 대책이 뭐냐고 따져 물었다이에 김양보 제주도 환경보전국장은 “인구와 관광객이 늘고 각종 개발로 인해 쓰레기가 크게 늘었다”고 진단한 뒤 “쓰레기를 줄이기 위해 캠페인이나 감량기 보급, 종량제봉투 가격인상을 통해 재활용률을 높이고 있다. 관광객의 경우는 전세버스나 렌터카에 종량제봉투를 비치해 쓰레기를 되가져오도록 하고 있다”고 말했다.홍 의원은 “대책을 보면 요일별 배출제와 배출시간 제한에 따른 도민불편 가중, 종량제봉투 값 등 대부분을 도민들이 부담하고 있다”면서 “원인자를 규명하지 않고 도민들에게 뒤집어 씌우고 있다”고 지적했다.김양보 국장은 “관광객들에게 원인자 부담금을 부과하는 방안도 검토하고 있다”며 현재 검토 중인 환경보전기여금 도입 추진에 속도를 내겠다는 의지를 내비쳤다. 좌용철 기자 ja3038@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 2 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 3 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 4 제주 구좌읍 평대리 단독주택서 화재…인명피해 없어 5 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 6 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 7 개천절 제주, 30도 넘는 깜짝 더위...5일부터는 찬바람 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 10 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 1 미덥지 못한 ‘관광청 제주 설치’ 尹정부 공약, 용두사미 되나? 2 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 3 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 4 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 5 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 6 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 7 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 10 돌아온 일상, 한층 더 책과 친숙해진 ‘2022 제주독서대전’ 1 니들 역사 잘모르자나 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ그냥 노는 날이 다 정도로 안는 거같음 ㅋㅋㅋㅋ 곰이 사람되고 그런 거야 ㅋㅋㅋ 겨레가 뭐냐? 카자흐스탄좀 갔다와 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ겨레의 뜻도 모르는 것들이 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ고조선이 뭐냐 조선 조선의 뜻이 뭐냐 ㅋㅋㅋㅋㅋㅋ주스야 ㅋㅋㅋ 달 태양 금성 왜 조선이라고 하는줄을 모른 ㅋㅋ그냥 개천절은 노는날 정도임 마늘 처먹은 곰탱이 이러구 알고 있음 ㅋㅋㅋㅋ 조선의 뜻을 알아야 되는거 임 우리의 뿌리 을 알아야되는것임 그런 놈들이 43을 안다고 하냐 ㅋㅋㅋ 우리가 케레이 다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 2 왜 이걸 제주도만 시범으로 빠따 맞아야 하나? 만만한 제주도라서 그런가? 시범시범시범 3 제주도의원들은 할일이 없겠음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ제주자치도인지 서울자치도인지 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 4 아래 댓처럼 일 못하는 고문관들이 회사와 사회발전의 암이다 이런새끼들의 특징 1. 기본 계산도 못한다 2. 좆도 모르는 일에 나대면서 아는척은 존나게 한다 3. 그런 주제에 양심도 도덕도 없어서 여러사람 눈 찌푸리게 하는걸 지만 모른다 5 급식비가 얼마냐 가 아니라 급식 수준이 봐야 되는거지 ㅋㅋㅋㅋㅋㅋ 급식은 처먹으면서 애들 급식수준이 떨어지면 조사해 보던가 하지 무조건 돈돈하는 건니들 같어 ㅋㅋㅋ 물가가 오르던 말던 급식이 애들 불만 없이 잘되면 그만이지 기준없이 잘만 하는 지역도 많쿠만 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ이런 미친 돈 또라이들 6 썬오브 비치 7 당시 기준에서 재판해야한다. 남로당에 부역한 전원에 대해 엄중한 책임을 부과하고 잘못을 인식시켜야 한다. 용서는 사실인정과 반성이 있어야 가능하다. 당시 재판이 가장 사실에 부합하다. 8 1948년 한림동국민학교에서 조선민주애국청년동맹대회 때 사회를 보아 명예의장으로 남조선노동당 박헌영을 추대함과 동시에 남조선노동당 박헌영 체포령 취소 요구 진정서를 미군정청사령관 하지 중장에 보내는 데 앞장을 선 사람을 무죄를 오늘 선고한다면 대한민국의 정체성은 더욱 더 흔들린다. 9 4.3위원회 폐지법안 원희룡, 제주의 아픔 말할 자격 있나?" 윤철수 headlinejeju@headlinejeju.co.kr 승인 2014.03.21 김우남, "원희룡 4.3위원회 폐지법안 공동발의" 지난 2008년 한나라당 의원들을 중심으로 제주4.3위원회 폐지를 내용으로 하는 제주4.3특별법 개정안의 국회 제출당시 새누리당 원희룡 제주도지사 예비후보도 공동발의한 사실이 확인돼 논란이 일고 있다. 10 묻지도 따지지도 말라 하니 참 ㅋㅋㅋㅋㅋ니들이 말이통하는 세상인게 부럽다 ㅋㅋㅋㅋㅋㅋ예를 들면 역사의 증거는 가물거리고 주변 생존자가 있어 울며 불며 뭐라 하니 동요된 여론과 뭐 잇딴 감성파리로 법을 뒤집는다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 이듸 일름 적읍서 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 제주 제2공항, 전·현지사 머리 맞대라 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 어룬 방둥인 애기 이상 엇나 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 있을 법하지 않은, 낯선 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 올리 추석 멩질상엔 고사리육개장 올렴수다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>"제주도 쓰레기 정책, 관광객은 놔두고 도민들에 부담 전가" - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 "제주도 쓰레기 정책, 관광객은 놔두고 도민들에 부담 전가" 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 도의회 "제주도 쓰레기 정책, 관광객은 놔두고 도민들에 부담 전가" 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2017.10.19 12:24 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 홍기철 의원 "쓰레기 정책, 원인자 감량정책 없어" ▲ 홍기철 의원. ⓒ헤드라인제주 제주특별자치도가 재활용품 요일별 배출제 등 각종 쓰레기 정책에 있어 관광객 등 다른 요인들은 놔두고 제주도민들에게만 부담을 전가하고 있다는 지적이 제기됐다.제주특별자치도의회 환경도시위원회 더불어민주당 홍기철 의원읜 19일 제355회 임시회에서 제주도 환경보전국을 상대로 실시한 행정사무감사에서 이같이 지적했다.홍 의원은 "지난 2015년과 지난해를 비교하면 인구는 15%, 관광객은 200만명 늘었는데 쓰레기는 600여톤에서 1200톤 가량으로 두배 늘었다"면서 쓰레기 증가 요인과 제주도가 추진하고 있는 쓰레기 감량 대책에 대해 물었다이에 대해 김양보 제주도 환경보전국장은 "인구와 관광객이 늘고 각종 개발로 인해 쓰레기가 크게 늘었다"면서 "쓰레기를 줄이는게 상당히 어려운데, 기본적으로 음식물 관련해 줄이기 캠페인이나 감량기 보급사업, 종량제 봉투 가격을 인상해 재활용을 늘리고 있고, 관광객의 경우 전세버스나 렌터카에 종량제 비치해 쓰레기를 되가져오도록 하고 있다"고 설명했다.답변을 들은 홍 의원은 "주요 대책을 보면 요일별 배출제와 배출시간 제한으로 인한 불편, 종량제 봉투값 등 대부분을 제주도민들이 부담하고 있다"면서 "원인자를 정확하게 규정하지 않고 도민들에게 뒤집어 씌우고 있다"고 비판했다.이에 대해 김양보 국장은 "그런 부분 인식해서 관광객이나 렌터카 업체 찾아다니며 (관광객 등이)자체 처리할 수 있도록 방안을 강구하고 있다"면서 "관광객들에게 원인자 부담금을 부과하는 방안도 검토하고 있다"고 답했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>[2017 양성평등문화상] “제주도를 예술·휴양 고품격 관광지로” - 여성신문 × 전체기사 오피니언 전체 사설 기자의 눈 기고 연재 사회 전체 사건사고 교육 노동 언론 환경 인권·복지 식품·의료 사회 일반 정치 전체 청와대 국회·정당 북한 행정 국방·외교 정치일반 경제 전체 금융 증권 산업·재계 중기·벤처 부동산 글로벌 경제 생활경제 경제 일반 문화 전체 책 음악 방송·영화 공연·전시 종교 문화 일반 생활 전체 건강 여행 음식 날씨 생활 일반 세계 전체 아시아·호주 미국·중남미 유럽 중동·아프리카 세계 일반 전국 IT/과학 전체 모바일 인터넷 뉴미디어 IT 일반 보안 컴퓨터 게임 과학 일반 스포츠 연예 동정 특별기획‧연재 총선 English 전체 Society Politics Economy Culture Life Photo People Sports Entertainment Opinion Special Network 대선 대선 여론조사 아내를 위한 레시피 ENGLISH 2022-10-04 08:38 (화) 콘텐츠 다운로드 로그인 회원가입 전체보기 최신 정치 사회 경제 문화 생활 오피니언 기획‧연재 기사검색 검색 제보 종이신문구독 후원 및 PDF구독 유튜브 구독 뉴스 오피니언 정치 사회 경제 문화 생활 전국 세계 스포츠 포토 동정 특별기획·연재 여신 서포터즈 구독신청 일시후원 정기후원 여성신문소개 허스토리 주요사업 연혁 만드는사람들 오시는길 회원가입 나의 정보관리 콘텐츠 다운로드 고객센터 공지사항 기사제보 투고 오류신고 기사문의 콘텐츠구매 독자이벤트 이전 다음 [2017 양성평등문화상] “제주도를 예술·휴양 고품격 관광지로” 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 문화 2017 올해의 양성평등문화상 [2017 양성평등문화상] “제주도를 예술·휴양 고품격 관광지로” 진주원 여성신문 기자 승인 2017.10.15 15:26 수정 2017-10-19 10:00 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 신진여성문화인상 강명순 아트제주 대표 제주도서 2년째 대규모 아트페어 개최 강명순 아트제주 대표 ⓒ아트제주㈜ 한국을 대표하는 관광지 제주도를 자연경관과 먹거리 위주의 관광을 넘어 예술과 휴양이 결합된 고품격 관광으로 패러다임을 바꾸는 실험이 진행되고 있다. 신진여성문화인상을 수상한 강명순 아트제주 대표는 홍콩이나 싱가포르, 마이애미처럼 국제적인 예술관광 도시로 변화 착안해 아트페어인 ‘아트제주’를 2년째 개최하고 무에서 유를 창조하고 있다. 강 대표는 수상소감으로 “아직 1·2회 밖에 안했고 소박한 규모인데 큰 상을 주셨다. 예술계에선 아무도 알지 못하고, 저 스스로도 알지 못하기에 과분한 상이지만 새롭게 용기를 내는 기회가 됐다”고 말했다. 아트페어란 화랑들이 한 장소에 모여 작품을 판매하는 행사를 말한다. 여기에 제주도의 특색을 살려 문화예술상품의 주 소비층으로 분류되는 특급호텔 관광객의 접근성을 높이기 위해 ‘호텔페어’라는 방식도 더했다. 생소하기만 한 아트페어를 열겠다는 강 대표를 주변 사람들은 기대보다 걱정스러운 눈으로 바라봤다. 1회만 해도 대단한 일이라는 분위기였다. 지난 7월 13일부터 16일까지 하얏트리젠시제주에서 열린 2017아트제주 ⓒ아트제주2017 강 대표는 피나는 노력 끝에 2016년에 아트제주의 첫 선을 보였고, 2017년에는 대중의 곁으로 한층 더 가까이 다가서는데 성공했다. 예술에 관한 지식을 무료로 공유하는 아트세미나 오픈클래스를 5주간 개최했고, 이어 국내외 갤러리들이 2017아트제주를 개최하면서 분위기를 조성했다. 제주도 출신의 강 대표는 평생 관광업에 종사해왔고 현재 제주도 특급호텔에서 관광상품숍을 운영하고 있다. 사업가인 그가 전국을 다니며 예술가들과 화랑을 설득해 제주도에서 작품을 전시하고 판매하도록 한 것이다. 그는 3회째인 2018아트제주는 아트 시장이 본격적으로 활성화될 것으로 기대하고 있다. 이를 위해 아트페어를 앞두고 갤러리·예술가들과 연계한 세미나를 보다 확대해 대중에게 다가간다는 계획이다. 강 대표는 “제주가 예술관광의 섬으로 거듭날 수 있도록 혼신의 노력을 다하겠다”고 밝혔다. 저작권자 © 여성신문 무단전재 및 재배포 금지 진주원 여성신문 기자 runjjw@womennews.co.kr 다른기사 보기 기사가 마음에 드셨나요? 여성신문은 1988년 창간 이후 여성 인권 신장과 성평등 실현을 위해 노력해 온 국내 최초, 세계 유일의 여성 이슈 주간 정론지 입니다. 여성신문은 여성들의 더 나은 삶을 위해 여성의 '안전, 사회적 지위, 현명한 소비, 건강한 가족'의 영역에서 희망 콘텐츠를 발굴, 전파하고 있습니다. 저희 기사가 마음에 드셨다면 좋은 기사 후원하기를 해주세요. 여러분의 후원은 여성신문이 앞으로도 이 땅의 여성을 위해 활동 할 수 있도록 합니다. 여성신문 좋은 기사 후원하기 1,000원 3,000원 5,000원 10,000원 30,000원 50,000원 정기후원하기 후원하기 ※ 소중한 후원금은 더 좋은 기사를 만드는데 쓰겠습니다. 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 후 이용 가능합니다. 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 최신기사 뉴욕증시, 금리하락에 일제히 상승... 다우 2.7%↑ 뉴욕증시, 금리하락에 일제히 상승... 다우 2.7%↑ 서해상 풍랑주의보... 인천~백령도 등 여객선 12척 운항통제 서해상 풍랑주의보... 인천~백령도 등 여객선 12척 운항통제 우크라이나, 남부 헤르손 일부 탈환...드니프로강 돌파 우크라이나, 남부 헤르손 일부 탈환...드니프로강 돌파 북한, 동해상으로 탄도미사일 발사 북한, 동해상으로 탄도미사일 발사 [날씨] 전국 흐리고 비... 비 그치고 '쌀쌀' [날씨] 전국 흐리고 비... 비 그치고 '쌀쌀' 노벨 생리의학상에 스반테 페보... 인류 진화 연구한 유전학자 노벨 생리의학상에 스반테 페보... 인류 진화 연구한 유전학자 '신당역 스토킹 살인' 전주환, 실제와 너무 다른 신상공개 사진 논란 '신당역 스토킹 살인' 전주환, 실제와 너무 다른 신상공개 사진 논란 당정, 여성가족부 폐지 시동... "정부 조직개편 방안 논의" 당정, 여성가족부 폐지 시동... "정부 조직개편 방안 논의" 인기기사 동성애자 차이코프스키의 고뇌와 사랑, 아름다운 음악으로 되살아나다 1 동성애자 차이코프스키의 고뇌와 사랑, 아름다운 음악으로 되살아나다 세계가 사랑하는 음악가, 차이코프스키는 동성애자였다. 거장이 남긴 연서(戀書)들은 아름답고 비통하다. 사랑을 찬미하면서도 세상으로부터 숨겨야 한다는 고뇌와 좌절이 묻어난다. 19세... 아이 낳으라는 정부, ‘유산 방지약’ ‘입덧약’은 임신부 돈으로 해결하라고? 2 아이 낳으라는 정부, ‘유산 방지약’ ‘입덧약’은 임신부 돈으로 해결하라고? 정부가 저출산 문제를 해결하기 위해 현금성 복지 혜택을 늘리고 있지만, 아직 사각지대가 존재한다는 목소리가 높다. 특히 수요가 높은데도 불구하고 아직 개인이 부담해야 하는 비급여 ... [쉬운 우리말 쓰기] ‘맏뜻’이 뭐지? 한글날 행사에 오자투성이 3 [쉬운 우리말 쓰기] ‘맏뜻’이 뭐지? 한글날 행사에 오자투성이 계절의 시계는 멈추지 않고 돌아갑니다. 폭우가 할퀴고 간 상처가 여전하지만 30도를 웃도는 더위는 언제 그랬느냐는 듯 자취를 감추었지요. 도둑처럼 찾아온 선선한 날씨에 자꾸만 몇 ... '미성년 11명 성폭행' 김근식, 등교시간 외출 금지... 하교시간은 괜찮나 4 '미성년 11명 성폭행' 김근식, 등교시간 외출 금지... 하교시간은 괜찮나 미성년자 11명을 성폭행한 혐의로 15년을 복역하고 이달 17일 출소하는 김근식(54)이 아동·청소년들 등교시간에 주거지 밖으로 나갈 수 없게 됐다. [W건강생활백서] 가을 환절기 알레르기 비염 주의보 5 [W건강생활백서] 가을 환절기 알레르기 비염 주의보 쾌청한 가을이 이어지고 있지만 환절기마다 시작되는 비염증상으로 불편한 날을 보내는 분이 많다. 비염은 방치할수록 증상이 악화되어 인후두염, 중이염, 결막염, 축농증과 같은 합병증으... 마녀는 왜 공주를 영원한 잠에 빠뜨렸을까 6 마녀는 왜 공주를 영원한 잠에 빠뜨렸을까 동화 ‘잠자는 숲속의 공주’ 속 마녀는 왜 공주를 영원한 잠에 빠뜨렸을까요? 왜 잠든 공주는 왕자의 입맞춤으로 깨어났을까요? 디즈니는 왜 자신들이 만든 고전 애니메이션에 ‘인종차별... 대한체육회, 2022 여성스포츠진흥 토크콘서트 개최 7 대한체육회, 2022 여성스포츠진흥 토크콘서트 개최 2022 여성스포츠진흥 토크콘서트가 30일 오후 2시 서울시 송파구 서울 올림픽파크텔 1층 올림피아홀에서 열린다. 대한체육회가 주최하고 대한체육회 여성체육위원회가 주관하며, 문화체... ‘OOO 게이트’라니... 여배우 인권은 어디로? 8 ‘OOO 게이트’라니... 여배우 인권은 어디로? 여성 연예인의 열애설 이후 대중들의 비난이 거세다. 전문가들은 언론이 조회수를 올리기 위해 여성 연예인을 이용하고 있다고 비판했다.9월 28일 한 인터넷 언론사는 ‘“그는 빗썸 회... [날씨] 전국 구름 많고 일교차 10도 이상 9 [날씨] 전국 구름 많고 일교차 10도 이상 28일 전국에 구름 많고 일교차가 10도 이상으로 커질 것으로 보인다.기상청은 이날 전국에 가끔 구름 많겠다고 예보했다.아침 기온은 서울 16.3도, 춘천 12.7도, 강릉 14.... ‘노벨문학상 후보’ 옌롄커 작가 “표현할 수 있느냐가 중요...중국서 출간 여부 중요치 않아” 10 ‘노벨문학상 후보’ 옌롄커 작가 “표현할 수 있느냐가 중요...중국서 출간 여부 중요치 않아” 노벨문학상 후보로 자주 거론되는 중국 작가 옌롄커(64)가 서울시 은평구가 주관하는 제6회 이호철통일로문학상 본상을 수상했다.국가와 체제의 폭력에 저항하는 글쓰기로 주목받는 작가다... 여성신문 친구되기 페이스북 트위터 Tweets by wnewskr About Us 여성신문 소개 구독 및 후원하기 기사제보 문의 불편신고 개인정보취급방침 RSS English Information (주)여성신문사 대표이사 : 김효선 서울특별시 종로구 삼일대로 447 부남빌딩 8층 대표전화 : 02-318-9300 팩스 : 02-752-0549 사업자등록번호 : 214-81-03304 여성신문 발행·편집인 : 김효선 청소년보호책임자 : 신준철 등록번호 : 서울-다06480 등록일 : 1988-04-30 Membership 로그인 회원가입 아이디·비밀번호찾기 Related Sites 여성마라톤대회 히포시코리아 여성문화네트워크 양성평등문화상 여성신문 트위터 여성신문 페이스북 여성신문 유튜브 여성신문의 영상·기사·사진 등 모든 콘텐츠의 지적재산권은 여성신문에 있으며 관련법의 보호를 받습니다. Copyright 2022 (주)여성신문사. All rights reserved. mail to admin@womennews.co.kr 위로</t>
-  </si>
-  <si>
-    <t>연합뉴스TV 본문으로 바로가기 연합뉴스TV 주메뉴 뉴스 뉴스 헤드라인 최신 정치 경제 사회 스포츠 문화·연예 지역 세계 날씨 제보 제보 제보하기 제보영상 뉴스피드 뉴스피드 뉴스뷰 출근길 인터뷰 정치五감 여의도 SNS 명품 리포트 바스켓톡 월드줌 월드줌 France24 프로그램 프로그램 뉴스프로그램 Y-Story 보도국 보도국 앵커 · 아나운서 기상 · 뉴스 캐스터 라이프 라이프 건강 취업 검색 검색 자동완성 열기 검색 자동완성 끄기 인기검색어 검색닫기 라이브 다시보기 다시듣기 Close 제주도 여행 25인승 관광버스 넘어져…연휴 사건ㆍ사고 사회 제주도 여행 25인승 관광버스 넘어져…연휴 사건ㆍ사고 송고시간 2017-10-05 18:19:59 좋아요 0 공유하기 확대하기 축소하기 이전 다음 공유하기 카카오톡 카카오스토리 페이스북 트위터 네이버블로그 네이버밴드 복사 닫기 브라우저가 video 태그를 지원하지 않습니다. 죄송하지만 다른 브라우저를 사용하여 주십시오. 닫기 제주도 여행 25인승 관광버스 넘어져…연휴 사건ㆍ사고[뉴스리뷰][앵커]명절 연휴에도 전국에선 사건사고가 이어졌습니다.25인승 관광버스가 돌덩이를 피하려다 도로 옆으로 굴러떨어져 19명이 다치는가 하면 실종자를 수색하던 경찰관이 절벽에서 떨어져 중상을 입었습니다.김지수 기자입니다.[기자]비탈길 옆 버스가 넘어져 있고 소방대원들과 경찰은 주변 수습에 바쁩니다.오늘(5일) 오전 9시 40분쯤 제주시 애월읍 고성리 평화로에서 25인승 관광버스가 도로를 벗어나 옆으로 넘어졌습니다.이 사고로 관광버스에 타고 있던 20명 중 운전사 71살 강 모 씨를 제외한 60살 김 모 씨 등 19명이 부상을 입고 병원으로 옮겨졌습니다.김 씨 등은 안산에서 제주로 관광을 온 가족 단위 관광객들로 알려졌습니다.경찰은 "도로 위에 돌덩이를 피하려다 도로 가장자리와 충돌한 후 버스가 넘어졌다"는 운전사 강 씨의 진술을 바탕으로 정확한 사고 경위를 조사 중입니다.오늘 오전 5시 40분쯤 제주 동부경찰서 소속 추자파출소장 52살 박 모 경감이 실종자 수색작업 중 절벽에서 추락했습니다.박 경감은 하추자도에 있는 돈대산 절벽에서 발을 헛디뎌 떨어졌고 크게 다쳐 헬기를 이용해 병원으로 옮겨졌습니다.박 경감은 실종자를 찾기 위해 하추자도 돈대산을 둘러보다 사고를 당한 것으로 알려졌습니다.차량 앞 부분이 형체를 알아 볼 수 없게 찌그러졌습니다.오늘 오전 7시15분쯤 경남 창원시 의창구 서상동 도로에서 25살 조 모 씨가 몰던 승용차가 길을 가던 58살 정 모 씨와 인근 현금지급기를 잇달아 들이받았습니다.이 사고로 정 씨는 숨지고 차량 운전자 조 씨는 경상을 입었습니다.경찰은 졸음운전 여부 등을 포함 정확한 사고 원인을 조사하고 있습니다.연합뉴스TV 김지수입니다.연합뉴스TV : 02-398-4441(기사문의·제보) 카톡/라인 jebo23(끝) 정치 북한, 중거리 탄도미사일 1발 발사…"일본 상공 통과" 경제 4억원 이하 1주택자, 모레부터 안심전환대출 접수 사회 "AI 보조교사 도입"…'이주호식' 교육 정책은? 세계 인도네시아서 축구장 대형 참사…"우리 팀이 져서" 뉴스 헤드라인 최신 정치 경제 사회 스포츠 문화·연예 지역 세계 날씨 프로그램 뉴스프로그램 Y-Story 뉴스피드 뉴스뷰 출근길 인터뷰 정치五감 여의도 SNS 명품 리포트 바스켓톡 제보 제보하기 제보영상 라이프 건강 취업 Fun&amp;Fun 보도국 앵커 · 아나운서 기상 · 뉴스 캐스터 회사소개 연합뉴스TV소개 주요경영현황 조직운영방침 윤리강령 CEO인사말 연혁 위치안내 시청자참여 시청자위원회 시청자평가원 시청자VOC 고충처리인 시청자게시판 광고/비즈니스 TV광고 온라인(웹)광고 사업제휴 문화사업 영상판매 공지사항 편성규약 큐톤안내 채널안내 개인정보처리방침 RSS서비스 모바일APP 페이스북 트위터 유튜브 (주)연합뉴스TV 서울특별시 종로구 율곡로 2길(수송동) 대표자 : 성기홍 대표전화 : 02-398-7800 사업자등록번호 : 101-86-62619 Copyright 2019 © 연합뉴스TV :: 대한민국 뉴스의 시작. 채널 23 All rights reserved. 모든 콘텐츠(기사)는 저작권법의 보호를 받은바, 무단 전재·복사·배포를 금합니다. Family site 연합뉴스 연합인포맥스</t>
-  </si>
-  <si>
-    <t>연합뉴스TV 본문으로 바로가기 연합뉴스TV 주메뉴 뉴스 뉴스 헤드라인 최신 정치 경제 사회 스포츠 문화·연예 지역 세계 날씨 제보 제보 제보하기 제보영상 뉴스피드 뉴스피드 뉴스뷰 출근길 인터뷰 정치五감 여의도 SNS 명품 리포트 바스켓톡 월드줌 월드줌 France24 프로그램 프로그램 뉴스프로그램 Y-Story 보도국 보도국 앵커 · 아나운서 기상 · 뉴스 캐스터 라이프 라이프 건강 취업 검색 검색 자동완성 열기 검색 자동완성 끄기 인기검색어 검색닫기 라이브 다시보기 다시듣기 Close 제주도 여행 25인승 관광버스 넘어져…연휴 사건ㆍ사고 사회 제주도 여행 25인승 관광버스 넘어져…연휴 사건ㆍ사고 송고시간 2017-10-05 18:03:56 좋아요 0 공유하기 확대하기 축소하기 이전 다음 공유하기 카카오톡 카카오스토리 페이스북 트위터 네이버블로그 네이버밴드 복사 닫기 브라우저가 video 태그를 지원하지 않습니다. 죄송하지만 다른 브라우저를 사용하여 주십시오. 닫기 제주도 여행 25인승 관광버스 넘어져…연휴 사건ㆍ사고[앵커]명절 연휴에도 전국에선 사건사고가 이어졌습니다.25인승 관광버스가 돌덩이를 피하려다 도로 옆으로 굴러떨어져 19명이 다치는가 하면 실종자를 수색하던 경찰관이 절벽에서 떨어져 중상을 입었습니다.김지수 기자입니다.[기자]비탈길 옆 버스가 넘어져 있고 소방대원들과 경찰은 주변 수습에 바쁩니다.오늘(5일) 오전 9시 40분쯤 제주시 애월읍 고성리 평화로에서 25인승 관광버스가 도로를 벗어나 옆으로 넘어졌습니다.이 사고로 관광버스에 타고 있던 20명 중 운전사 71살 강 모 씨를 제외한 60살 김 모 씨 등 19명이 부상을 입고 병원으로 옮겨졌습니다.김 씨 등은 안산에서 제주로 관광을 온 가족 단위 관광객들로 알려졌습니다.경찰은 "도로 위에 돌덩이를 피하려다 도로 가장자리와 충돌한 후 버스가 넘어졌다"는 운전사 강 씨의 진술을 바탕으로 정확한 사고 경위를 조사 중입니다.오늘 오전 5시 40분쯤 제주 동부경찰서 소속 추자파출소장 52살 박 모 경감이 실종자 수색작업 중 절벽에서 추락했습니다.박 경감은 하추자도에 있는 돈대산 절벽에서 발을 헛디뎌 떨어졌고 크게 다쳐 헬기를 이용해 병원으로 옮겨졌습니다.박 경감은 실종자를 찾기 위해 하추자도 돈대산을 둘러보다 사고를 당한 것으로 알려졌습니다.차량 앞 부분이 형체를 알아 볼 수 없게 찌그러졌습니다.오늘 오전 7시15분쯤 경남 창원시 의창구 서상동 도로에서 25살 조 모 씨가 몰던 승용차가 길을 가던 58살 정 모 씨와 인근 현금지급기를 잇달아 들이받았습니다.이 사고로 정 씨는 숨지고 차량 운전자 조 씨는 경상을 입었습니다.경찰은 졸음운전 여부 등을 포함 정확한 사고 원인을 조사하고 있습니다.연합뉴스TV 김지수입니다.연합뉴스TV : 02-398-4441(기사문의·제보) 카톡/라인 jebo23(끝) 정치 북한, 중거리 탄도미사일 1발 발사…"일본 상공 통과" 경제 4억원 이하 1주택자, 모레부터 안심전환대출 접수 사회 "AI 보조교사 도입"…'이주호식' 교육 정책은? 세계 인도네시아서 축구장 대형 참사…"우리 팀이 져서" 뉴스 헤드라인 최신 정치 경제 사회 스포츠 문화·연예 지역 세계 날씨 프로그램 뉴스프로그램 Y-Story 뉴스피드 뉴스뷰 출근길 인터뷰 정치五감 여의도 SNS 명품 리포트 바스켓톡 제보 제보하기 제보영상 라이프 건강 취업 Fun&amp;Fun 보도국 앵커 · 아나운서 기상 · 뉴스 캐스터 회사소개 연합뉴스TV소개 주요경영현황 조직운영방침 윤리강령 CEO인사말 연혁 위치안내 시청자참여 시청자위원회 시청자평가원 시청자VOC 고충처리인 시청자게시판 광고/비즈니스 TV광고 온라인(웹)광고 사업제휴 문화사업 영상판매 공지사항 편성규약 큐톤안내 채널안내 개인정보처리방침 RSS서비스 모바일APP 페이스북 트위터 유튜브 (주)연합뉴스TV 서울특별시 종로구 율곡로 2길(수송동) 대표자 : 성기홍 대표전화 : 02-398-7800 사업자등록번호 : 101-86-62619 Copyright 2019 © 연합뉴스TV :: 대한민국 뉴스의 시작. 채널 23 All rights reserved. 모든 콘텐츠(기사)는 저작권법의 보호를 받은바, 무단 전재·복사·배포를 금합니다. Family site 연합뉴스 연합인포맥스</t>
-  </si>
-  <si>
-    <t>카지노 관광진흥기금 소송서 제주도 패소 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:20 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 카지노 관광진흥기금 소송서 제주도 패소 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사회 법원검찰 카지노 관광진흥기금 소송서 제주도 패소 현봉철 기자 승인 2017.10.16 15:24 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주지법 “이전 사업자 매출누락…현재 사업자 제재 부당” [제주일보=현봉철 기자] 제주특별자치도가 매출액을 누락해 신고했다가 국세청에 적발된 도내 유명 카지노에 부과한 제주관광진흥기금 23억원을 못 받을 위기에 처했다.제주지방법원 제1행정부(재판장 김진영 부장판사)는 서귀포시 제주신라호텔에 위치한 마제스타 카지노가 제주도를 상대로 제기한 제주관광진흥기금 부과처분 취소 청구소송에서 원고 승소 판결했다고 16일 밝혔다.재판부는 판결문에서 “관광사업의 양수 등을 규정한 관광진흥법 제8조 1항은 승계대상을 등록이나 신고 등에 수반한 권리·의무에 한정하고 있을 뿐이고, 이를 양도인의 모든 사법상·공법상 행위로 인한 법률효과까지 포함하지는 않는다”며 “카지노 영업의 매출에 기인한 관광진흥개발기금 납부의무가 관광사업의 등록이나 신고 등에 수반되는 권리·의무라고 보기 어렵다”고 밝혔다.이어 “카지노 양수 당시 분식회계를 통해 매출액을 누락한 사실을 알지 못했다면 매출누락 등의 행위를 한 양도인 대신 선의의 양수인에게 제재처분을 하는 것은 부당하다”며 “이 사건 처분은 법률의 근거 없이 이뤄진 처분으로 위법하다”고 강조했다.마제스타 카지노는 2011년 219억원의 매출을 올렸지만 222억원 누락해 총 매출액을 신고했다가 국세청에 적발됐다.이에 제주도는 지난해 11월 누락매출액 222억원에 대한 제주관광진흥기금 23억원을 부과했다.마제스타 카지노 측은 “2012년 카지노를 인수받기 이전에 빚어진 일이기 때문에 현재 사업자에게 관광진흥기금을 부과하는 것은 부당하다”며 지난 2월 소송을 제기했다. 현봉철 기자  hbc@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현봉철 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도, 박홍배 제주관광공사 사장 임명 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:20 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도, 박홍배 제주관광공사 사장 임명 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 박홍배 제주관광공사 사장 임명 홍수영 기자 승인 2017.10.13 18:06 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 13일 도의회 인사청문회서 '적격 판정' 후 이날 사장직에 임명 [제주일보=홍수영 기자] 제4대 제주관광공사 사장으로 박홍배 전 제주특별자치도 특별자치행정국장(60)이 임명됐다.제주도는 13일 박홍배 제주관광공사 사장이 제주도의회 인사청문회에서 ‘적격’ 판단을 받음에 따라 사장직에 임명했다고 밝혔다. 제주도는 제주관광공사 사장 직위가 지난 8월부터 장기 공석인 점을 고려해 조속한 조직 안정 및 당면 현안업무 추진을 위해 이날 바로 박홍배 사장을 임명, 업무 수행에 돌입하도록 했다고 설명했다. 이에 앞서 제주도의회 문화관광스포츠위원회(위원장 김희현•더불어민주당•제주시 일도2동 을)는 이날 박 사장에 대한 인사청문회를 갖고 적격 의견의 심사경과보고서를 채택했다.  문광위는 보고서를 통해 박 사장에 대해 “지난 41년 간 공직생활에서 쌓은 경험과 노하우를 관광분야에 접목하고 관광시장에서 파생되는 다양한 현안사항을 관련 전문가와 협의, 해소해 나간다면 제주관광공사의 경영 위기 극복을 통한 제주관광을 한 단계 더 끌어올릴 수 있을 것”이라고 적격 판단의 이유를 밝혔다. 이어 “다만 박 사장 예정자는 제주관광산업의 문제점을 인식하고 개선 방안을 제시하고 있지만 관광이력 부족 및 전문성 미흡으로 보완이 필요한 것으로 보인다”고 덧붙였다. 박 사장은 이날 모두발언에서 “양적 관광에 치중했던 제주관광의 패러다임을 질적 관광으로 전환하는데 혼신의 노력을 기울이겠다”며 “관광객 만족도와 재방문율을 높이기 위해 제주의 미래 비전에 부합하는 청정, 생태, 미식 등 고부가가치 전략상품 개발을 확대하고 관광종사원 및 도민 친절역량 교육을 강화하겠다”고 말했다. 또 “아세안 10개국을 중심으로 시장다변화, 개별관광객을 위한 관광정보 안내 콘테츠 개발, 전략적 마케팅 활동 강화 등을 추진하겠다”며 “고부가가치를 확대하는 선순환 관광산업 생태계를 구축하고 지역사회와 공유가치를 창출하겠다”고 피력했다. 한편 이날 의원들은 박 사장이 관광분야 경험이 부족한 점을 우려하는 한편 제주관광공사의 시내면세점 집중 투자 등을 개선해 수익 다각화 방안 마련 및 공사로서의 공익사업 강구 등을 잇따라 제기했다. 홍수영 기자  gwin1@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 홍수영 기자 다른기사 보기 관련기사 박홍배 사장 예정자 인사청문 통과 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도 관광협회, 추석연휴 제주방문 환영행사 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 관광협회, 추석연휴 제주방문 환영행사 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 관광협회, 추석연휴 제주방문 환영행사 개최 서한솔 기자 headlinejeju@headlinejeju.co.kr 승인 2017.10.02 12:40 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 추석 연휴를 맞아 2일부터 오는 3일까지 이틀간 공·항만에서 귀성객과 관광객 대상으로 제주방문 환영행사를 개최한다.이 날 환영행사에서는 환영·홍보부스 운영을 통한 환영 기념품을 제공과 함께 현수막 게첩 및  멀티비전을 활용한 제주 방문 환영 메시지 전달이 이뤄진다.또 제주를 방문한 귀성·관광객들의 관광불편을 최소화하기 위해 지난 8월 개편된 대중교통체계에 대한 홍보 및 안내도 진행된다.환영행사에는 제주도와 관광협회 외에도 한국공항공사 제주지역본부, 한국해운조합 제주지부 등이 참여한다.한편, 이번 추석연휴 간 약 51만 여명의 귀성객 및 관광객이 제주를 방문할 것으로 예상되고 있다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 서한솔 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도 관광버스 전복...인명피해는 없어 &lt; 사회 &lt; 기사본문 - BBS NEWS 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-04 09:48 (화) 로그인 회원가입 BBS불교방송 홈페이지 바로가기 상세검색 facebook twitter kakaostory youtube 전체 경제 정치 제 20대 대통령 선거 사회 문화ㆍ스포츠 불교 국제 전국 BBS 인터뷰 BBS 칼럼 BBS 취재수첩 BBS PLAZA 인사/부고 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 관광버스 전복...인명피해는 없어 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 제주도 관광버스 전복...인명피해는 없어 기자명 유민지 인턴기자 입력 2017.10.05 13:10 수정 2017.10.05 13:20 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도에서 관광버스가 옆으로 넘어지는 사고가 발생했습니다.오늘 오전 9시 37분쯤 제주시 애월읍 고성리 평화의섬 교회 동측 도로에서 어린아이와 어른 등 20명을 태우고 달리던 관광버스가 전복됐습니다.이 사고로 승객 19명과 버스 기사가 경상을 입고 인근 병원에서 치료를 받고 있습니다.경찰은 운전자 등을 상대로 정확한 사고 경위를 조사하고 있습니다. 유민지 인턴기자 bbsnews@bbsi.co.kr 다른기사 보기 저작권자 © BBS NEWS 무단전재 및 재배포 금지 당신만 안 본 뉴스 구절초 향기 가득한 영평사로 오세요~ 정토사회문화회관 개관, '사회공헌·포교'의 전당 서울의 첫 수도 "한성백제문화제"...9/30~10/3 올림픽공원에서 소백산 예천 용문사, 다음달(10월) 2일 “대장전.윤장대 국보승격 축하음악회” 개최 공군 블랙이글스, 한강공원 에어쇼 우천으로 취소 제주 곽지해수욕장서 스노쿨링 중 실종된 40대 변사체로 발견 미륵도량 봉덕사 "희망의 노래 전통차 축전" 구절초 향기 가득한 영평사로 오세요~ 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 "美, 중간선거 뒤 'IRA' 규정 유연 적용 가능성" 국회, 오늘 국감돌입…법사위·외통위서 난타전 예고 尹 "북한 무모한 핵 도발, 국제사회 결연 대응 직면할 것" [박주정 교육칼럼] "마을과 함께하는 교육공동체 활동에 감동" 소아 한약, 언제 먹을까요? 5·18조사위, 옛 광주교도소서 출토된 유골은 5·18 행불자 최신뉴스 국제 "美, 중간선거 뒤 'IRA' 규정 유연 적용 가능성" 정치 국회, 오늘 국감돌입…법사위·외통위서 난타전 예고 정치 尹 "북한 무모한 핵 도발, 국제사회 결연 대응 직면할 것" 전국 [박주정 교육칼럼] "마을과 함께하는 교육공동체 활동에 감동" 지방사 인터뷰 소아 한약, 언제 먹을까요? 포토뉴스 "美, 중간선거 뒤 'IRA' 규정 유연 적용 가능성" 국회, 오늘 국감돌입…법사위·외통위서 난타전 예고 尹 "북한 무모한 핵 도발, 국제사회 결연 대응 직면할 것" [박주정 교육칼럼] "마을과 함께하는 교육공동체 활동에 감동" 인기뉴스 1 ‘모두의 행복 발원’ 영평사에서 낙화전통문화축제 2 [뉴스파노라마 개천절 휴일 특집] 정찬주 작가 “간화선, 현대인에 최적화된 수행법…글쓰기, 무문관(無門關) 수행” 3 감사원, 문 전 대통령 서면조사 통보...내일 국감 ‘강대강 충돌’ 4 나토 사무총장, 러시아 핵무기 사용 위협에 강력 경고 5 ‘사라져가는 전통 잇는다’ 부여 대조사 미륵대재 봉행 6 서울 도심서 보수단체 3만여 명 대규모 집회...교통 혼잡 7 제1회 봉선사 교리경시대회 회향...창건 1053주년 개산대재 봉행 8 불국사, 불기2566년 제50회 신라문화 영산대재 봉행 BBS 칼럼 전경윤의 ‘세상살이’ 전영신의 ‘시선’ 신두식의 ‘공감노트’ 배재수의 ‘크로키’ 이현구의 ‘스윗 스팟’ 선임기자 칼럼 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 BBS불교방송(재) 서울특별시 마포구 마포대로 20 (다보빌딩) 대표전화 : 02-705-5114 팩스 : 02-705-5229 청소년보호책임자 : 배재수 제호 : BBS NEWS 등록번호 : 서울 아 01259 등록일 : 2010-06-03 발행일 : 2001-09-01 발행인 : 서주영(금호) 편집인 : 전경윤 BBS NEWS 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 BBS NEWS. All rights reserved. mail to webmaster@bbsi.co.kr 위로 전체메뉴 전체기사 경제 정치 전체 20대 국회 국정감사 트럼프 당선 2017 국회 국정감사 2018 남북정상회담 6.12 북미 정상회담 제7회 전국동시지방선거 2차 북미정상회담 21대 국회의원 총선거 제20대 대통령 선거 제8회 전국동시지방선거 사회 전체 2018학년도 대입 수능 뉴스줌인 인터넷 야단법석 문화ㆍ스포츠 전체 2016 리우올림픽 2018 동계올림픽 2018 동계 패럴림픽 2018 러시아월드컵 2018 아시안게임 2020 도쿄올림픽 불교 전체 2018 무술년 신년인사 스리랑카 대통령 방한 제35대 총무원장 설정스님 2017 올해의 사자성어 당신이 연꽃입니다 기획보도 전통사찰을 가다 단박인터뷰 2018 부처님 오신날 2019 차문화대축제 3.1운동 100주년 월주 대종사 원적 2021 신축년 불교계 플랜 국제 전국 전체 전국네트워크 BBS 인터뷰 전체 BBS 전영신의 아침저널 BBS 뉴스파노라마 지방사 인터뷰 BBS 화쟁토론 BBS 경제토크 BBS 뉴스와 사람들 BBS 기획/단독 BBS 칼럼 전체 박경수의 '삼개나루' 전영신의 '시선' 신두식의 '공감노트' 배재수의 '크로키' 전경윤의 '세상살이' 선임기자 칼럼 이현구의 '북악산 자락' 권예진의 거꾸로 세상보기 양창욱의 ‘야단법석(野壇法席)’ 명사 칼럼 김호준의 '내시경' 이현구의 스윗 스팟 BBS 취재수첩 BBS 개국 30주년 BBS 장군죽비 BBS PLAZA 인사/부고 기타 BBS 라디오 TV 알찬뉴스 지난 뉴스 다시보기 이전기사 전체메뉴닫기</t>
+    <t>제주도 도서관 운영 ‘문화체육관광 장관상’ &lt; 자치행정 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도 도서관 운영 ‘문화체육관광 장관상’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 자치행정 제주도 도서관 운영 ‘문화체육관광 장관상’ 기자명 이기봉 기자 입력 2017.10.30 10:24 수정 2017.10.30 10:26 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 인적자원 시설환경 서비스 등 5개 영역평가…지자체선 처음 제주도가 도서관 정책 평가에서 지방자치단체에선 처음으로 문화체육관광부 장관상을 수상했다.제주도가 문화체육관광부와 대통령 소속 도서관정보정책위원회가 공동 주최하는 2017년 전국 도서관 운영평가에서 문화체육관광부 장관상을 받았다.도서관 운영평가는 문화체육관광부가 전국 도서관을 대상으로 도서관 경영, 인적자원, 시설환경, 정보자원, 서비스 등 5개 영역에 대해 실시하는 종합평가이다.2017년 평가에는 총 2449개 기관이 참여해 48개 기관이 수상의 영예를 차지했다.전국 도서관을 대상으로 시행되고 있는 이번 평가 포상대상은 2015년부터 지방자치단체까지 확대돼 광역 지방자치단체가 수상한 것은 올해 제주도가 처음이다.도는 체계적인 중장기 도서관 정책, 작은 도서관 활성화, 지식정보 취약계층을 위한 독서정책 항목 등에서 높은 평가를 받았다.이번 수상을 통해 도는 양질의 인프라 뿐만 아니라 다양한 도서관 정책과 우수한 서비스 제공을 인정받았다.김홍두 도 문화체육대회협력국장은 “이번 수상을 계기로 도서관이 도민에게 더욱 친화적인 공간이 될 수 있도록 운영해 나갈 방침”이라고 밝혔다. 이기봉 기자 daeun4680@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 하반기 우수관광사업체 지정 공모 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 하반기 우수관광사업체 지정 공모 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 하반기 우수관광사업체 지정 공모 기자명 고병수 기자 입력 2017.10.29 13:36 수정 2017.10.29 13:41 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도는 관광사업체의 경쟁력을 강화시켜 관광객들의 만족도를 향상시킬 우수관광사업체를 지난 24일부터 11월 17일까지 모집하고 있다고 29일 밝혔다.공모대상은 영업신고(리모델링) 후 1년 이상 경과한 제주도에 본점을 둔 사업체로 관광지, 교통, 숙박업, 여행업, 음식업 5개 분야를 대상으로 한다.우수관광사업체로 지정돼 2년이 도래한 사업체는 신청해 재지정을 받아야 한다.우수관광사업체 선정은 공모에 신청한 관광사업체의 신청서류 등 자격요건심사 후, 전문가들로 구성된 평가위원들의 현장평가와 우수관광사업체 평정위원회의 심의를 거치며 지정 기간은 내년부터 2년간 이다.주요 평가 항목으로는 사업체의 시설 및 환경, 서비스, 요금, 안전·위생관리, 지역 사회 공헌도 등 분야별 평가표에 의해 종합적으로 평가하며, 종합점수가 기준 점수(90점) 충족된 경우 평정위원회 심의를 거쳐 최종 선정한다. 우수관광사업체로 지정되면 우수관광사업체 지정서 및 인증패가 수여되고, 道 관광정보시스템 및 유관기관 홈페이지, 팸투어 등 SNS, 리플릿, 지도 등 홍보물을 통한 홍보 인센티브 혜택이 주어지며 홍보지원금 70만원이 지급된다.이승찬 제주도 관광국장은 "우수관광사업체의 서비스 등 품질 향상을 위해 고객서비스 평가 결과에 따른 서비스 교육을 실시하고, 지정된 우수관광 사업체에 대해 홍보 지원 등 인센티브를 확대하도록 노력해 나갈 계획"이라며 "이번 공모에 도내 우수 관광사업체가 많이 참여해 줄 것을 바란다"고 말했다.한편 현재까지 총 107개소가 제주특별자치도 우수관광사업체관광지 38, 교통 4, 숙박 36, 여행 11, 음식 18개소)로 지정된 바 있다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>정부, 제주도에 '관광-환경-산업-재정' 정책결정권 이양 &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:32 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 정부, 제주도에 '관광-환경-산업-재정' 정책결정권 이양 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 정부, 제주도에 '관광-환경-산업-재정' 정책결정권 이양 기자명 이승록 기자					(leerevol@naver.com) 입력 2017.10.26 19:22 댓글 14 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 시도지사 간담회서 지방분권 로드맵 초안 공개...특별도 11년만에 '자치분권 완성' 추진 ▲ 문재인 대통령이 26일 여수세계박람회장에서 원희룡 제주지사와 만나 악수하고 있다.&lt;사진=청와대&gt; 정부가 제주도에 관광·환경·산업·재정 등 핵심 정책결정권을 이양한다.노무현 정부에서 제주특별자치도를 처음 실시한 후 11년만에 '주민이 체감하는 자치분권 시범도시 완성'을 추진하게 되는 것이다.26일 문재인 대통령 주재로 '제2회 시도지사 간담회'가 여수시 여수세계박람회장 컨퍼런스홀에서 열렸다.이날 회의에는 김부겸 행정안전부장관, 김동연 기획재정부장관, 홍남기 국무조정실장, 송재호 지역발전위원장, 원희룡 제주지사를 비롯한 17개 시도지사가 참석했다.정부는 학계, 관계부처 의견을 수렴한 '자치분권 로드맵' 초안을 공유하고 자치단체의 다양한 의견을 반영하기 위한 논의를 진행했다. ▲ 문재인 대통령이 26일 여수세계박람회장에서 원희룡 제주지사와 만나고 있다.&lt;사진=청와대&gt; 행안부는 자치경찰제 도입을 비롯해 중앙정부 권한의 획기적인 지방 이양 차원에서 제주특별자치도에 관광·환경·산업·재정 등 핵심 정책결정권을 넘겨 주민이 체감하는 '자치분권 시범도시'로 완성하기로 했다.정부가 마련한 자치분권 로드맵(안)은 ‘내 삶을 바꾸는 자치분권’이라는 비전 아래, '연방제에 버금가는 강력한 지방분권'을 목표로, 5대 분야 30대 추진과제로 구성된다.5대 핵심전략은 △중앙권한의 획기적 지방이양 △강력한 재정분권 추진 △자치단체의 자치역량 제고 △풀뿌리 주민자치 강화 △네트워크형 지방행정체계 구축이며, 추진 기반은 지방분권형 개헌이다.중앙권한의 획기적 지방이양에서 정부는 제주특별자치도에 '관광·환경·산업·재정' 등 핵심 정책결정권을 이양, 주민이 체감하는 자치분권 시범도시 완성을 추진키로 했다.이와 함께 제주도에서 시범실시하고 있는 자치경찰제를 전국으로 확대 도입을 추진키로 했다.교육자치 구현을 위해 시도교육청 및 단위학교에 유아·초·중등 교육권한을 이양하고, 시도교육청간 협력도 강화한다.강력한 재정분권을 위해 현재 8:2인 국세와 지방세 비중을 7:3을 거쳐 6:4로 개편을 추진한다.지방소비세 및 지방소득세 비중 확대를 추진하고, 지방세 신세원 발굴과 비과세·감면 관리를 강화하며, 개인이 자치단체에 기부 시 세액공제 등 인센티브를 제공하는 '고향사랑 기부제'를 도입한다.지방세 확대 시 지역간 재정격차를 완화하기 위해 증가하는 세수 일부를 자치단체 간 균형재원으로 활용하는 방안을 검토하고, 지방교부세율 상향 등 교부세의 균형역할 강화와 함께 국가·지방 간 기능 조정과 연계한 국고보조사업 등의 개편을 추진한다. 자치단체의 자치역량을 제고하기 위해 지방의회의 집행부 견제기능을 강화하고, 지방의회의 대표성 제고를 위해 비례대표 의석확대 등 선거제도 개선을 추진한다.풀뿌리 주민자치 강화를 위해 읍면동 청사 공간혁신 등 '혁신읍면동 사업'을 추진하고, 주민자치회 역할도 확대된다.주민투표·주민소환·주민참여예산제·주민조례개폐청구제 등 직접 참여제도를 개선해 제도의 실효성 제고 및 실질적 주민참여를 확대한다.자치분권의 추진기반으로서 국회의 헌법 개정을 지원한다.현재 국회를 중심으로 논의 중인 헌법 개정을 적극 지원해 지방분권국가 선언, 자치입법권 확대, 사무처리의 범위 확대, 과세 자주권 보장 등 주요 쟁점들을 검토해 나갈 계획이다. 김부겸 행정안전부장관은 "정부가 5년간 추진할 ‘자치분권 로드맵(안)’을 처음 공개하고, 지방과 함께 논의했다는 측면에서 의의가 크다"며 "관계부처와 자치단체, 일반국민 등의 다양한 의견을 수렴해 12월말까지 최종 확정할 계획”이라고 말했다. 관련기사 제주자치경찰 전국 확대...소방공무원 국가직 전환 문재인 대통령 만난 원희룡, 제주4.3 추념식 참석 건의 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>아이와 떠나는 제주도 서귀포 여행, 관광명소와 흑돼지 맛집 제대로 즐기자 &lt; 이슈 &lt; 기사본문 - 뉴스컬처 (NEWSCULTURE) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집 : 2022-10-11 11:04 (화) 제보 이슈모아보기 로그인 전체메뉴 버튼 연예 공연·전시 이슈 포토·영상 컬처Life 여행문화 패션뷰티 헬스푸드 미술문화 PEOPLE 경제 검색버튼 기사검색 검색 인기뉴스 '스트릿 맨 파이터' 심사 논란 보아, 끝없는 악플에 지친 심경 토로[뉴스컬처★] [인터뷰]'환승연애2' PD "욕먹는 출연자 이해될 날 있을 것" 제니 '열애설' 뷔, 데이트 때 이 정도는 입어야 못 알아봐[뉴스컬처★] '해피니스' 한효주X박형식, 샤넬 행사에서 재회한 선남선녀[뉴스컬처★] 제주도 떠난 '환승연애2'…뒤늦게 진심 깨닫고 혼란 박민영 열애설 입장 유보 "촬영으로 확인 늦어져" '아이유 콘서트'에서 포착된 방탄소년단 정국···찐팬심 드러나는 올콘 목격담[뉴스컬처★] '백패커' 안보현, 백종원 공항에서 우연히 마주치는 사이[뉴스컬처★] 이달소 츄, 개인 인스타그램 개설...납득 가는 이유[뉴스컬처★] '아이돌의 재발견' 드라마·영화에서 연기력 인정받으며 배우로 승승장구[뉴스컬처★] naver post kakao twitter youtube instagram 본문영역 이전 기사보기 다음 기사보기 아이와 떠나는 제주도 서귀포 여행, 관광명소와 흑돼지 맛집 제대로 즐기자 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 스크롤 이동 상태바 현재위치 홈 이슈 아이와 떠나는 제주도 서귀포 여행, 관광명소와 흑돼지 맛집 제대로 즐기자 기자명 이정형 기자 입력 2017.10.28 10:15 수정 2018.09.20 18:45 댓글 0 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사저장 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 가을이 깊어가면서 제주도를 찾는 여행객들도 늘고 있다. 짙어가는 단풍과 함께 바람도 점점 강해지는데, 특히 제주도의 바람은 더욱 세차게 느껴질 수 있다. 아이와 동반 여행이라면 강풍이 부담스러울 수도 있다. 이에 제주도 여행객들이 어린 자녀와 함께 가기 좋은 실내 관광 명소와 더불어 제주 토속음식 정보를 알아봤다. 우선 여아 동반이라면 헬로키티 아일랜드가 제격이다. 키티를 테마로 하여 다양한 체험이 가능하며, 기념사진을 찍을 포토존이 곳곳에 놓여 있고 아기자기한 소품을 구경하는 재미가 쏠쏠하다. 자동차를 좋아하는 아이와 함께라면 세계자동차박물관이 좋다. 다양한 자동차들에 대한 이야기를 접할 수 있으며, 야외에서 직접 미니카를 타고 간단한 도로주행 체험도 가능하다. 동물을 좋아하는 아이 동반이라면 아프리카박물관으로 향해 보자. 독특한 외관에 입구에서부터 밀림 속에 온 듯한 분위기가 나는 이곳에선 가상 사파리체험을 즐길 수 있다. 또한 사진전을 통해 아프리카의 생활과 문화를 느껴볼 수도 있다.  고기를 좋아하는 아이와 함께라면 제주도 명물 흑돼지를 맛보는 것은 필수 코스다. 제주도 서귀포에서 흑돼지 맛집을 찾는다면 요리 경력 30년 정 셰프의 노하우가 고스란히 담겨있는 흑돼지 전문점 `제주곰집`을 소개할만하다. 최상위 등급만 고집하는 고기 철학과 고기 초벌 시 비법 소스를 비롯해 직접 담근 멜젓 소스와 된장찌개, 직접 개발한 쟁반 비빔 냉면과 해물 우동 볶음 등 식재료 사이의 절묘한 조화 등이 이곳을 말해주는 키워드이다. `제주곰집`을 서귀포 흑돼지 맛집으로 소문나게 한 인기 메뉴는 흑돼지 해산물 모둠이다. 연탄불에 초벌된 제주 흑돼지 목살, 제주 흑돼지 오겹살을 비롯해 전복, 대하, 소시지로 이루어져 있다. 멜젓에 찍은 흑돼지고기를 파절이와 깻잎에 싸먹으면 그 맛이 일품이다. 직접 담근 된장찌개, 해물우동볶음, 쟁반비빔냉면 등도 이곳에서만 맛볼 수 있는 특색 메뉴. "보다 나은 흑돼지 고기 맛을 위해 숙성 냉장고를 이용해 5일 정도 숙성한 고기를 제공하고 있습니다. 흑돼지는 가장 맛있게 구울 수 있는 연탄구이로 초벌을 하며, 초벌 시 특제소스를 발라 잡내를 없애는 동시에 기름을 빼고 질긴 식감도 완화시키고 있습니다. 반찬은 인스턴트 음식은 쓰지 않고 모두 손수 만들어 관광객들이 서귀포에서 제대로 맛있는 한 끼를 드실 수 있도록 노력하고 있습니다." 제주도 서귀포 맛집의 자부심이 느껴지는 말이다.  [뉴스컬처 360VR] [뉴스컬처 연예TV] [네이버 포스트] 이정형 기자 father6314@naver.com&lt;저작권자ⓒ뉴스컬처 무단전재 및 재배포 금지&gt; 저작권자 © 뉴스컬처 (NEWSCULTURE) 무단전재 및 재배포 금지 키워드 Tags #제주곰집 이정형 기자 father6314@naver.com 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사저장 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 포토뉴스 빈지노, 브루클린의 자유로운 감성(화보) 아이유, 가을의 고혹미(화보) 아이유X손석구, 겨울을 준비하는 커플(화보) 뉴진스, 생기 넘치는 소녀들(화보) 최수영, 의류 모델 발탁될만한 비율(화보) 정호연, 모델 출신의 능수능란 포즈(화보) 인기뉴스 1 '비밀남녀' 미켈 비밀 힌트 공개 "끝이 정해져 있다" 2 '아일랜드' 악에 대항하는 김남길·이다희·차은우·성준 3 '나는 SOLO' 10기 커플 탄생 목격한 3MC의 경악 4 이제훈, 남궁민 드라마에 또 등장 5 [인터뷰①]'브론테' 강지혜·이봄소리·허혜진 "내가 아니면 질투날 것 같은 극" 포토뉴스 [포토]‘인간 디올’ 블랙핑크 지수, 넘사벽 비주얼의 매력 뉴진스, 핫한 패션 아이콘(화보) NCT 쇼타로X성찬, 클래식 무드(화보) [NC포토]'브론테' 송영미, 투명함 머금고 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로 309 (삼성제일빌딩) 12F 대표전화 : 02-557-5321 팩스 : 02-557-5322 청소년보호책임자 : 신명근 법인명 : (주)케이뉴스 제호 : 뉴스컬처 (NEWSCULTURE) 등록번호 : 서울,아02083 등록일 : 2012-04-19 발행일 : 2012-04-19 발행·편집인 : 신명근 뉴스컬처 (NEWSCULTURE) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 뉴스컬처 (NEWSCULTURE). All rights reserved. mail to newsculture@knewscorp.co.kr 위로 전체메뉴 전체기사 연예 공연·전시 이슈 포토·영상 컬처Life 전체 여행문화 패션뷰티 헬스푸드 미술문화 PEOPLE 경제 알림 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 11월1일부터 수렵장 운영 "관광지는 안돼요" &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 11월1일부터 수렵장 운영 "관광지는 안돼요" 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 제주도 11월1일부터 수렵장 운영 "관광지는 안돼요" 기자명 이소진 기자 입력 2017.10.26 19:28 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도는 국립공원, 문화재 보호지역 등 수렵금지지역을 제외한 도내 576.66㎢ 지역에 대해 수렵장을 설정 고시한다고 26일 밝혔다.수렵장 운영기간은 오는 11월 1일부터 내년 1월 31일까지이며, 수렵시간은 일출 후부터 일몰까지다.수렵이 가능한 동물은 꿩, 멧비둘기, 천둥오리, 흰뺨 검둥오리, 까치, 참새, 까마귀 등이며, 총기는 1인 1정 사용을 원칙으로 한다.수렵 제한지역은 한라산국립공원과 문화재보호지역 및 세계자연유산지역, 해안 600m이내, 관광지, 도시지역 등이다. 수렵장 내에서도 여러 사람이 모이는 장소와 도로법 제2조 제1조에 따른 도로로부터 100m 이내 장소, 가축·인명 등 피해를 줄 우려가 있는 장소 등은 수렵이 제한된다. 이소진 기자 이소진 기자 lllrayoung@daum.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 말레이시아 관광객 유치 나선다 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도, 말레이시아 관광객 유치 나선다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 제주도, 말레이시아 관광객 유치 나선다 기자명 변미루 기자 입력 2017.10.27 11:45 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 말레이시아 항공사인 에어아시아X가 오는 12월 제주직항 노선을 신규 운항한다. 이에 따라 제주도가 본격적인 말레이시아 관광객 유치에 나선다. 제주도는 27~28일 말레이시아 쿠알라룸프르 리츠칼튼 호텔에서 제주관광 통합설명회를 개최한다고 밝혔다이번 설명회는 제주-쿠알라룸프르 직항 취항을 기회로 말레이시아인들의 한국관광을 활성화하고 도내 업계의 현지 시장 진출을 지원하기 위해 추진됐다.제주관광공사와 도내 사업체 15곳 등이 참여한 제주관광마케팅단은 '디스커버 뉴 제주(Discover New Jeju)'를 주제로 현지 언론사와 여행업체 등에 제주를 홍보할 예정이다.한편 제주를 찾은 말레이시아 관광객은 올해 9월 기준 4만967명으로 지난해 같은 기간 3만3436명에 비해 22.5% 증가했다. 변미루 기자 byunmiroo@nate.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 마제스타 카지노 관광진흥기금 소송서 패소 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도, 마제스타 카지노 관광진흥기금 소송서 패소 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도, 마제스타 카지노 관광진흥기금 소송서 패소 송고시간2017-10-16 16:42 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 박지호 기자 기자 페이지 제주지법 "양수 전 매출누락분까지 양수자가 질 의무 없어" (제주=연합뉴스) 박지호 기자 = 제주지법 행정1부(김진영 부장판사)는 서귀포시 신라호텔 제주 내 마제스타 카지노가 제주도를 상대로 낸 제주관광진흥기금 부과처분 취소 청구소송에서 원고 승소 판결을 했다고 16일 밝혔다. 제주지방법원 (제주=연합뉴스) 박지호 기자 = 17일 제주시 이도2동 제주지방법원의 모습. 2017.2.17 jihopark@yna.co.kr 재판부는 "분식회계를 통해 매출액을 누락한 것은 카지노 양도인인 A사이고, 양수인인 마제스타 카지노 측은 그 사정을 알지 못했던 것으로 보이므로, 제주도는 양도인인 A사의 매출누락을 근거로 마제스타 카지노 측에 관광진흥기금의 납부를 명할 수 없다"며 "이 사건 처분은 법률의 근거 없어 이루어진 처분"이라며 마제스타 카지노 측의 손을 들어줬다. 재판부는 "관광사업의 양수 등을 규정한 관광진흥법 제8조 1항은 승계대상을 등록이나 신고 등에 수반한 권리·의무에 한정하고 있을 뿐이고, 이를 양도인의 모든 사법상·공법상 행위로 인한 법률효과까지 포함하지는 않는다"며 "카지노 영업의 매출에 기인한 관광진흥개발기금 납부의무가 관광사업의 등록이나 신고 등에 수반되는 권리·의무라고 보기 어렵다"고도 밝혔다. 광고 제주도로부터 지난해 11월 누락 매출 237억여원 대한 제주관광진흥기금 23억4천583만원을 부과받은 마제스타 카지노 측은 "매출액 누락은 2012년 카지노를 인수받기 이전에 발생한 일이기 때문에 이를 바탕으로 관광진흥기금을 부과하는 것은 부당하다"며 올해 2월 소송을 제기했다. 제주도는 이번 판결에 불복해 항소할 예정이며, 마제스타 카지노 측은 제주관광진흥기금을 제주도 측에 이미 납부한 상태다. jihopark@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2017/10/16 16:42 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 러시아 출신 억만장자 벤처투자자, 전쟁 반대하며 시민권 포기 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 선우은숙, 4살 연하 아나운서 유영재와 재혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 유병호, 문자 논란에 "송구…그 소통은 정상적인 것" 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 21 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 北전술핵 과시·野친일공세에…대통령실 "동북아 안보현실 엄중"(종합2보) 댓글수 9 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도평생교육진흥원, '제주관광+아카데미' 운영 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도평생교육진흥원, '제주관광+아카데미' 운영 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도평생교육진흥원, '제주관광+아카데미' 운영 서한솔 기자 headlinejeju@headlinejeju.co.kr 승인 2017.10.25 17:36 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도 평생교육진흥원(원장 강기춘)은 오는 11월 6일 관광업 종사자를 대상으로 '제주관광+아카데미 핵심역량과정'을 개강한다.'2017 제주지역혁신프로젝트 지역관광 질적 고도화 교육프로그램' 운영사업의 일환으로 운영되는 이번 아카데미는 관광 산업 환경변화에 대응할 수 있는 관광실무 및 현장 중심형 교육으로 구성된다.교육과정은 관광마케팅과정과 소통역량향상과정 2개의 주제로 진행되며 각 4회 12시간씩 운영된다. 관광마케팅과정에서는 △관광마케팅의 기본이해 △실무자에게 듣는 국내관광마케팅 사례 및 활용전략 △바로 써먹는 SNS마케팅의 이해 및 실전 △실무자에게 듣는 스마트관광 사례 및 활용전략 등이 진행된다.소통역량향상과정은 △소통역량향상를 위한 기본이해 △상황에 따른 갈등해결 △유형에 따른 소통역량향상전략 △제주관광에 대해 토론하기 등에 대한 내용으로 운영된다.참가희망자는 오는 11월 3일까지 신청서와 개인정보활용동의서를 작성해 제주도평생교육진흥원 팩스(064-726-9848) 또는 이메일(kimjiyeon17@daum.net)로 제출하면 된다. 모집인원은 과정별로 20명 씩이다.기타 자세한 사항은 제주도평생교육진흥원 홈페이지(http://www.jile.or.kr)에서 확인할 수 있다. 문의=제주특별자치도평생교육진흥원(755-9873)&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 서한솔 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>올가을 놓치지 말아야 할 제주도 서귀포 관광지와 맛집은? &lt; 뉴스 투데이 &lt; 라이프 &lt; 라운지 &lt; 기사본문 - 대한금융신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 신문사소개 구독신청 로그인 회원가입 전체메뉴 버튼 최종편집 2022-10-11 12:46 (화) 기사검색 검색 최신뉴스 ‘레고랜드 주관사’ BNK투자증권, 오늘 채권단 회의 개최 웰컴저축은행, 정기예금 금리 최고 4.45% 제공 한국투자證, 뱅키스 전용 ELS 50억 한도 모집 카뱅 임원진, 자사주 줄매입…“주주가치 제고” 케이뱅크 “아담대, 업계 최저금리로 받아보세요” 헤이딜러, 김혜수·한소희와 함께 새 캠페인 전개 “헤어지자, 두려움 없이” ETRI 주최·셀렉트스타 주관, 자율성장 인공지능 경진대회 성료 DGB금융그룹, 대한민국 교육기부 대상 수상 흥국생명, ‘숨은 내 보험금 찾아주기’ 캠페인 진행 리치앤코, 보험추천 시스템 개발 완료…"굿리치쇼 개최" 본문영역 이전 기사보기 다음 기사보기 올가을 놓치지 말아야 할 제주도 서귀포 관광지와 맛집은? SNS 기사보내기 SNS 기사보내기 스크롤 이동 상태바 현재위치 홈 라운지 라이프 뉴스 투데이 올가을 놓치지 말아야 할 제주도 서귀포 관광지와 맛집은? 입력 2017.10.27 14:22 대한금융 온라인팀 jshily@kbanker.co.kr 다른기사 보기 SNS 기사보내기 SNS 기사보내기 다른 공유 찾기 바로가기 글씨크기조절 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 URL복사 닫기 &lt;대한금융신문 온라인팀&gt; 여행을 떠나기에 딱 좋은 계절, 가을이 찾아왔다. 전국 곳곳이 노랗고 붉은 단풍빛으로 물들면서 가을 여행객들의 가슴을 설레게 하고 있다.국내 대표적인 여름 휴양지로 손꼽혔던 제주도에는 가을에도 관광객들의 발길이 이어지고 있다. 제주도만의 색다른 가을 풍경이 펼쳐지고 있는데다 풍성한 프로그램을 통해 다채로운 체험 활동까지 할 수 있기 때문이다.제주 가을의 풍경을 제대로 만끽하려면 생이기정에 방문해보는 것이 좋다. 새가 날아다니는 절벽길이라는 이름의 이곳에는 바람 따라 일렁이는 억새와 푸르른 파도가 어우러져 한폭의 수채와 같은 낭만적인 분위기를 자아낸다.따라비 오름 또한 억새숲을 볼 수 있는 명소다. 크고작은 오름이 모여 ‘오름의 여왕’이라고도 불리우는 따라비 오름의 주변에는 너른 억새숲이 조성돼 가을에 그 매력이 고조에 달한다.단풍을 즐기고 싶다면 한라산을 찾아보는 것은 어떨까. 올해 한라산의 단풍은 11월 중순까지 이어질 것으로 보인다. 한라산은 그 높이가 높아 고도별로 각기 다른 색색의 단풍을 즐길 수 있어서 좋다. 특히 삼각봉, 탐라계곡, 용진각 현수교 인근의 풍경이 아름다운 것으로 알려져 있다.제주도에서만 즐길 수 있는 체험 프로그램도 놓치지 말자. 서귀포농업기술센터에서 개최하는 제주감귤박람회가 11월 8일부터 12일까지 열린다. 이 박람회에서는 귤향가득 타르트 체험, 오메기 떡 체험, 감귤 과즐체험, 한라봉 향초 만들기 및 감귤마을 역사문화탐방체험 등 귤과 관련된 다양한 체험행사가 마련돼 있다.가을의 끝자락인 11월 30일부터 12월 3일까지는 청정 제주바다의 멋과 맛을 즐길 수 있는 방어축제가 개최될 예정이다. 방어잡기를 비롯해 가요제, 사생대회 등 다양한 프로그램으로 관광객들에게 추억을 안길 방침이다.제주 여행에서 식도락이 빠질 수 없다. 제주도는 청정지역에서 생산된 신선한 식재료로 만든 진미들이 가득하다. 그 중에서도 많은 사랑을 받는 것이 갈치 요리. 크기가 큰 제주 갈치는 살코기를 한 입 가득 넣어 곰곰이 씹으면서 담백한 맛을 음미하기에 제격이다. 제주도 중문단지 맛집 ‘대기정’은 뛰어난 맛과 친절한 서비스로 제주도 내 7대 음식점 반열에 올랐다. 대표 메뉴로는 최상급 갈치를 사용한 갈치회, 갈치조림, 통갈치구이 등이 있다. 갈치스페셜 메뉴를 시키면 회와 조림, 구이를 한 번에 즐길 수도 있다.전복돌솔밥은 어린 아이들도 즐길 수 있는 인기 메뉴다. 전복의 익힘 정도를 잘 조절해 부드러우면서도 쫄깃한 식감을 자랑하며, 비린맛 없이 고소한 것이 특징이다. 또한 직접 간을 조절해서 먹을 수 있어 입맛에 맞게 즐길 수 있다. 그밖에도 성게의 향긋한 향이 살아있는 성게 비빔밥, 성게 미역국 등도 별미다.올가을 가을이기에 더욱 아름다운 제주도 서귀포 맛집에서 멋과 맛을 찾아 떠나보는 것은 어떨까. 저작권자 © 대한금융신문 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 많이 본 기사 최근 한달 1 유사암 '납입면제' 신사협정 깨졌나…과열경쟁 여전 2 오늘이 제일 비싼 보험사 채권…투자자는 여유 3 ‘정상여신 0건’ 저축은행도…부동산 쏠림현상 심각 4 사라진 은행 특판, ‘가만있어도 배불러’ 5 [보험, 오해와 진실] “초고금리시대, 역성장과 계약자이탈 몰아칠 것” 6 한화생명 ‘혁신사업’ 구독보험 접는다 7 동양 이어 한화생명도 ‘4.5% 저축보험’ 내논다 8 금감원, SBI저축은행 작업대출 집중검사 착수 9 WCP 부진에…기업공개 시장도 먹구름 10 9개월 만에 1조원 더 굽은 보험사 허리 1 삼성화재 ‘위풍댕댕’, 3일만에 메리츠화재 판매량 넘었다 2 뒤늦게 드러난 리치앤코의 역린…MG손보 투자금 손상처리 3 [국감 예고편] 증권가 ‘공매도‧사모펀드‧불법대출’로 긴장 4 롯데카드 매각 부진?…이유 있는 M&amp;A 전략 5 환율 1400원 시나리오…한화생명 '웃고' 삼성생명 '울고' 6 [허점투성이 1200% 룰] ①보험사-GA의 밀월 “시책 900% 쏩니다” 7 저축은행, 자영업자 대출도 브레이크 걸리나 8 잇단 저축은행 금융사고…‘내 돈 괜찮나’ 불안감 증폭 9 한달새 2조 팔린 ‘4% 저축보험’, 은행만 노났다 10 '전속' 빗장 푼 한화생명 GA, 설계사 반년새 800명 ↑ 대한금융DB [대한금융DB] 4대 금융지주 주식 외국인 소진율 추이 [대한금융DB] 5대 시중은행 예적금 잔액 추이 [대한금융DB] 국내 진출한 중국계 은행 수익성 추이 라운지의 최신 기사 헤이딜러, 김혜수·한소희와 함께 새 캠페인 전개 “헤어지자, 두려움 없이” ETRI 주최·셀렉트스타 주관, 자율성장 인공지능 경진대회 성료 노바크(NOVAC), 베트남 총판계약 체결 ‘5천만 바이크 시장 공략 본격화’ 1000년을 살고도 건강한 괴산 ‘은행나무’ [응답하라, 우리술 269] 드라이와인의 명가 꿈꾸는 ‘율와이너리’ 에어맘 분유포트, 임산부의 날 맞아 쇼핑 라이브 생방송 진행 하단영역 하단메뉴 신문사소개 고객센터 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 매체정보 서울특별시 영등포구 신길로 220 양우빌딩 202호 대표전화 : 02-783-2583 팩스 : 02-783-2586 청소년보호책임자 : 조성준 법인명 : (주)일간금융 제호 : 대한금융신문 등록번호 : 서울 아 03062 등록일 : 2014-03-24 발행일 : 1995-10-17 발행·편집인 : 조성준 대한금융신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 대한금융신문. All rights reserved. mail to webmaster@kbanker.co.kr 위로 전체메뉴 전체기사 정책 금융 전체 은행 증권 보험 2금융 카드 부동산 금융 100세 금융 해외금융 핀테크·IT 오피니언 전체 기고 기자수첩 금융인 대한금융DB 전체 은행 증권 보험 2금융 카드 자동차보험 라운지 전체 문화탐방 라이프 인사동정 전체 인사 부고 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>“제주도 쓰레기처리, 관광객은 놔두고 도민에 부담 전가” &lt; 도의회 &lt; 정치 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:32 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 “제주도 쓰레기처리, 관광객은 놔두고 도민에 부담 전가” 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 도의회 “제주도 쓰레기처리, 관광객은 놔두고 도민에 부담 전가” 기자명 좌용철 기자					(ja3038@hanmail.net) 입력 2017.10.19 14:47 댓글 4 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 ▲ 제주도의회 환경도시위원회 홍기철 의원(화북동, 더불어민주당). ⓒ제주의소리 [행감] 홍기철 의원 “원인자 규정부터” vs 김양보 국장 “관광객에 부담금 부과 검토”제주도가 재활용품 요일별 배출제 등 쓰레기정책을 펴면서 도민들에게만 부담을 전가하고 있다는 지적이 제기됐다. 입도 관광객 등에도 일부 책임을 부담시키는 환경보전기여금 제도도입으로 이어질 수 있을지 주목된다.제주도의회 환경도시위원회 홍기철 의원(화북동, 더불어민주당)은 19일 제주도 환경보전국 소관업무에 대한 행정사무감사에서 제주도의 쓰레기 정책을 도마에 올렸다.홍 의원은 “2015년과 지난해를 비교하면 인구는 15%, 관광객은 200% 늘었는데 쓰레기는 600여톤에서 1200톤으로 2배 늘었다”면서 쓰레기 감량 대책이 뭐냐고 따져 물었다이에 김양보 제주도 환경보전국장은 “인구와 관광객이 늘고 각종 개발로 인해 쓰레기가 크게 늘었다”고 진단한 뒤 “쓰레기를 줄이기 위해 캠페인이나 감량기 보급, 종량제봉투 가격인상을 통해 재활용률을 높이고 있다. 관광객의 경우는 전세버스나 렌터카에 종량제봉투를 비치해 쓰레기를 되가져오도록 하고 있다”고 말했다.홍 의원은 “대책을 보면 요일별 배출제와 배출시간 제한에 따른 도민불편 가중, 종량제봉투 값 등 대부분을 도민들이 부담하고 있다”면서 “원인자를 규명하지 않고 도민들에게 뒤집어 씌우고 있다”고 지적했다.김양보 국장은 “관광객들에게 원인자 부담금을 부과하는 방안도 검토하고 있다”며 현재 검토 중인 환경보전기여금 도입 추진에 속도를 내겠다는 의지를 내비쳤다. 좌용철 기자 ja3038@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 마이스 관광객 유치 주력 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도, 마이스 관광객 유치 주력 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 제주도, 마이스 관광객 유치 주력 기자명 변미루 기자 입력 2017.10.25 17:22 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ITB ASIA 2017 홍보관 운영해외 마이스 시장 확대 목표 제주도는 마이스(MICE) 관광객을 유치하기 위해 'ITB ASIA 2017'에서 제주 홍보관을 운영한다.25일 제주컨벤션뷰로에 따르면 도내 여행사와 호텔 등 마이스 업체 9곳은 이날부터 27일까지 싱가포르에서 열리는 ITB ASIA 2017에 참가해 해외 바이어를 대상으로 마케팅을 추진한다.ITB ASIA는 해마다 열리는 아시아 관광·마이스 전문 대규모 박람회다. 올해는 76개국·800명의 마이스 업체 관계자와 1000여명의 바이어 등이 참가한다.이번 박람회는 아세안 지역뿐 아니라 프랑스·호주 등 유럽과 오세아니아 바이어들이 대거 참가해 마이스 시장 확대의 발판이 될 전망이다.이승찬 제주도 관광국장은 "아세안 지역 인센티브 투어가 지난해에 비해 2배 이상 늘었다"며 "사드 등 위기 상황에도 관광업계가 흔들리지 않도록 시장 다변화의 전환점을 마련하겠다"고 말했다. 변미루 기자 byunmiroo@nate.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>"제주도 쓰레기 정책, 관광객은 놔두고 도민들에 부담 전가" - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 "제주도 쓰레기 정책, 관광객은 놔두고 도민들에 부담 전가" 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 도의회 "제주도 쓰레기 정책, 관광객은 놔두고 도민들에 부담 전가" 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2017.10.19 12:24 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 홍기철 의원 "쓰레기 정책, 원인자 감량정책 없어" ▲ 홍기철 의원. ⓒ헤드라인제주 제주특별자치도가 재활용품 요일별 배출제 등 각종 쓰레기 정책에 있어 관광객 등 다른 요인들은 놔두고 제주도민들에게만 부담을 전가하고 있다는 지적이 제기됐다.제주특별자치도의회 환경도시위원회 더불어민주당 홍기철 의원읜 19일 제355회 임시회에서 제주도 환경보전국을 상대로 실시한 행정사무감사에서 이같이 지적했다.홍 의원은 "지난 2015년과 지난해를 비교하면 인구는 15%, 관광객은 200만명 늘었는데 쓰레기는 600여톤에서 1200톤 가량으로 두배 늘었다"면서 쓰레기 증가 요인과 제주도가 추진하고 있는 쓰레기 감량 대책에 대해 물었다이에 대해 김양보 제주도 환경보전국장은 "인구와 관광객이 늘고 각종 개발로 인해 쓰레기가 크게 늘었다"면서 "쓰레기를 줄이는게 상당히 어려운데, 기본적으로 음식물 관련해 줄이기 캠페인이나 감량기 보급사업, 종량제 봉투 가격을 인상해 재활용을 늘리고 있고, 관광객의 경우 전세버스나 렌터카에 종량제 비치해 쓰레기를 되가져오도록 하고 있다"고 설명했다.답변을 들은 홍 의원은 "주요 대책을 보면 요일별 배출제와 배출시간 제한으로 인한 불편, 종량제 봉투값 등 대부분을 제주도민들이 부담하고 있다"면서 "원인자를 정확하게 규정하지 않고 도민들에게 뒤집어 씌우고 있다"고 비판했다.이에 대해 김양보 국장은 "그런 부분 인식해서 관광객이나 렌터카 업체 찾아다니며 (관광객 등이)자체 처리할 수 있도록 방안을 강구하고 있다"면서 "관광객들에게 원인자 부담금을 부과하는 방안도 검토하고 있다"고 답했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>[2017 양성평등문화상] “제주도를 예술·휴양 고품격 관광지로” - 여성신문 × 전체기사 오피니언 전체 사설 기자의 눈 기고 연재 사회 전체 사건사고 교육 노동 언론 환경 인권·복지 식품·의료 사회 일반 정치 전체 청와대 국회·정당 북한 행정 국방·외교 정치일반 경제 전체 금융 증권 산업·재계 중기·벤처 부동산 글로벌 경제 생활경제 경제 일반 문화 전체 책 음악 방송·영화 공연·전시 종교 문화 일반 생활 전체 건강 여행 음식 날씨 생활 일반 세계 전체 아시아·호주 미국·중남미 유럽 중동·아프리카 세계 일반 전국 IT/과학 전체 모바일 인터넷 뉴미디어 IT 일반 보안 컴퓨터 게임 과학 일반 스포츠 연예 동정 특별기획‧연재 총선 English 전체 Society Politics Economy Culture Life Photo People Sports Entertainment Opinion Special Network 대선 대선 여론조사 아내를 위한 레시피 ENGLISH 2022-10-11 12:04 (화) 콘텐츠 다운로드 로그인 회원가입 전체보기 최신 정치 사회 경제 문화 생활 오피니언 기획‧연재 기사검색 검색 제보 종이신문구독 후원 및 PDF구독 유튜브 구독 뉴스 오피니언 정치 사회 경제 문화 생활 전국 세계 스포츠 포토 동정 특별기획·연재 여신 서포터즈 구독신청 일시후원 정기후원 여성신문소개 허스토리 주요사업 연혁 만드는사람들 오시는길 회원가입 나의 정보관리 콘텐츠 다운로드 고객센터 공지사항 기사제보 투고 오류신고 기사문의 콘텐츠구매 독자이벤트 이전 다음 [2017 양성평등문화상] “제주도를 예술·휴양 고품격 관광지로” 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 문화 2017 올해의 양성평등문화상 [2017 양성평등문화상] “제주도를 예술·휴양 고품격 관광지로” 진주원 여성신문 기자 승인 2017.10.15 15:26 수정 2017-10-19 10:00 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 신진여성문화인상 강명순 아트제주 대표 제주도서 2년째 대규모 아트페어 개최 강명순 아트제주 대표 ⓒ아트제주㈜ 한국을 대표하는 관광지 제주도를 자연경관과 먹거리 위주의 관광을 넘어 예술과 휴양이 결합된 고품격 관광으로 패러다임을 바꾸는 실험이 진행되고 있다. 신진여성문화인상을 수상한 강명순 아트제주 대표는 홍콩이나 싱가포르, 마이애미처럼 국제적인 예술관광 도시로 변화 착안해 아트페어인 ‘아트제주’를 2년째 개최하고 무에서 유를 창조하고 있다. 강 대표는 수상소감으로 “아직 1·2회 밖에 안했고 소박한 규모인데 큰 상을 주셨다. 예술계에선 아무도 알지 못하고, 저 스스로도 알지 못하기에 과분한 상이지만 새롭게 용기를 내는 기회가 됐다”고 말했다. 아트페어란 화랑들이 한 장소에 모여 작품을 판매하는 행사를 말한다. 여기에 제주도의 특색을 살려 문화예술상품의 주 소비층으로 분류되는 특급호텔 관광객의 접근성을 높이기 위해 ‘호텔페어’라는 방식도 더했다. 생소하기만 한 아트페어를 열겠다는 강 대표를 주변 사람들은 기대보다 걱정스러운 눈으로 바라봤다. 1회만 해도 대단한 일이라는 분위기였다. 지난 7월 13일부터 16일까지 하얏트리젠시제주에서 열린 2017아트제주 ⓒ아트제주2017 강 대표는 피나는 노력 끝에 2016년에 아트제주의 첫 선을 보였고, 2017년에는 대중의 곁으로 한층 더 가까이 다가서는데 성공했다. 예술에 관한 지식을 무료로 공유하는 아트세미나 오픈클래스를 5주간 개최했고, 이어 국내외 갤러리들이 2017아트제주를 개최하면서 분위기를 조성했다. 제주도 출신의 강 대표는 평생 관광업에 종사해왔고 현재 제주도 특급호텔에서 관광상품숍을 운영하고 있다. 사업가인 그가 전국을 다니며 예술가들과 화랑을 설득해 제주도에서 작품을 전시하고 판매하도록 한 것이다. 그는 3회째인 2018아트제주는 아트 시장이 본격적으로 활성화될 것으로 기대하고 있다. 이를 위해 아트페어를 앞두고 갤러리·예술가들과 연계한 세미나를 보다 확대해 대중에게 다가간다는 계획이다. 강 대표는 “제주가 예술관광의 섬으로 거듭날 수 있도록 혼신의 노력을 다하겠다”고 밝혔다. 저작권자 © 여성신문 무단전재 및 재배포 금지 진주원 여성신문 기자 runjjw@womennews.co.kr 다른기사 보기 기사가 마음에 드셨나요? 여성신문은 1988년 창간 이후 여성 인권 신장과 성평등 실현을 위해 노력해 온 국내 최초, 세계 유일의 여성 이슈 주간 정론지 입니다. 여성신문은 여성들의 더 나은 삶을 위해 여성의 '안전, 사회적 지위, 현명한 소비, 건강한 가족'의 영역에서 희망 콘텐츠를 발굴, 전파하고 있습니다. 저희 기사가 마음에 드셨다면 좋은 기사 후원하기를 해주세요. 여러분의 후원은 여성신문이 앞으로도 이 땅의 여성을 위해 활동 할 수 있도록 합니다. 여성신문 좋은 기사 후원하기 1,000원 3,000원 5,000원 10,000원 30,000원 50,000원 정기후원하기 후원하기 ※ 소중한 후원금은 더 좋은 기사를 만드는데 쓰겠습니다. 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 후 이용 가능합니다. 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 최신기사 민주당, '여가부 폐지' 공식 반대 "성평등가족부로 확대해야" 민주당, '여가부 폐지' 공식 반대 "성평등가족부로 확대해야" 시중은행 고금리에 저축은행 예금금리 평균 4%대 시중은행 고금리에 저축은행 예금금리 평균 4%대 여자라 당했다...스토킹 피해자 80% 여성, 가해자 81% 남성 여자라 당했다...스토킹 피해자 80% 여성, 가해자 81% 남성 대구시 ‘찾아가는 환경교육’ 실시 대구시 ‘찾아가는 환경교육’ 실시 신규확진 1만5476명... 사망 10명, 석 달 만에 최저 신규확진 1만5476명... 사망 10명, 석 달 만에 최저 남양주 ‘제17회 광릉숲축제’ 3만여명 찾아 남양주 ‘제17회 광릉숲축제’ 3만여명 찾아 “상전벽해” 땅끝 해남서 정원 품은 스마트도시를 만나다 “상전벽해” 땅끝 해남서 정원 품은 스마트도시를 만나다 초등학교 등 교육기관 5곳서 불법촬영 일삼은 복사기 관리회사 직원 구속영장 초등학교 등 교육기관 5곳서 불법촬영 일삼은 복사기 관리회사 직원 구속영장 인기기사 “나는 단지 글 쓰는 여자” ’페미니스트 아이콘‘ 아니 에르노, 노벨문학상 수상 1 “나는 단지 글 쓰는 여자” ’페미니스트 아이콘‘ 아니 에르노, 노벨문학상 수상 프랑스의 ’페미니스트 아이콘‘, 자전적이면서도 사회학적인 글쓰기로 명성을 떨친 작가 아니 에르노(82)가 노벨 문학상을 수상했다. 스웨덴 한림원은 6일(현지시간) 에르노를 수상자로... ‘작은 아씨들’, 지워지거나 제 몫을 빼앗기지 않는 여자들 2 ‘작은 아씨들’, 지워지거나 제 몫을 빼앗기지 않는 여자들 *이 글에는 드라마의 스포일러가 포함돼 있습니다. 분명 유쾌한 첫인상은 아니었다. ‘작은 아씨들’은 첫 화부터 자본에 대한 노골적 예찬을 늘어놓고 빈곤 혐오에 저항하지 않는 인물들... [아내를 위한 레시피] '설거지를 잘하는 남편'이 된 사연 3 [아내를 위한 레시피] '설거지를 잘하는 남편'이 된 사연 아내는 내가 세상에서 능숙하게 다루는 게 딱 두 개라며 놀린다. 하나는 펜이고 다른 하나는 수세미다. 펜을 잘 다룬다는 건 작가인 내겐 고마운 칭찬이다. 요즘은 대부분 PC나 노트... 김현숙 여가부 장관 "'여성' 특화 정책 국민 기대 못 미쳐… 버터나이프 크루 대표적" [전문] 4 김현숙 여가부 장관 "'여성' 특화 정책 국민 기대 못 미쳐… 버터나이프 크루 대표적" [전문] 김현숙 여성가족부 장관은 7일 부처 폐지가 담긴 정부 조직개편의 방향은 '실용'이라며 "작은 부처의 한계를 극복하고 실효적인 양성평등을 추진할 수 있는 조직 형태로 변화할 것"이라... 윤석열 정부 "여가부 폐지" 공식화... 복지부 산하 본부로 격하 5 윤석열 정부 "여가부 폐지" 공식화... 복지부 산하 본부로 격하 윤석열 정부가 여성가족부를 폐지하고 보건복지부 산하 본부 체제로 격하하는 정부조직 개편안을 공식화했다.행전안전부는 5일 여가부를 폐지하고, 관련 기능을 복지부 산하 본부로 두는 안... 페미니즘·기후위기·제주 4·3...시대가 던진 질문, 공연으로 답하다 6 페미니즘·기후위기·제주 4·3...시대가 던진 질문, 공연으로 답하다 제22회 서울국제예술제(Seoul Performing Arts Festival, SPAF)가 오는 6일 대학로에서 개막한다. 국내 최대 규모와 역사를 자랑하는 공연예술 축제다. 코... 비혼여성들의 유쾌하고 솔직한 삶, 사진으로 담다 7 비혼여성들의 유쾌하고 솔직한 삶, 사진으로 담다 주황 작가의 여덟 번째 개인전 ‘피리 부는 여자들’이 서울 종로구 갤러리조선에서 개막했다.작가는 약 1년간 대전광역시 선화동의 비혼여성 공동체 ‘비혼후갬’ 여성들의 일상을 사진에 ... 제2회 남양주 어린이 축제 열려 8 제2회 남양주 어린이 축제 열려 주광덕 남양주시장은 지난 3일 남양주체육문화센터에서 열린 ‘제2회 남양주 어린이 축제-꿈을 먹고 살지요’에 참석해 어린이들을 응원하는 시간을 가졌다.이번 축제는 남양주어린이미래재단... [날씨] 전국 곳곳 비... 서늘한 가을날씨 한낮에도 선선 9 [날씨] 전국 곳곳 비... 서늘한 가을날씨 한낮에도 선선 전국이 흐린 가운데 전국 곳곳에 비가 내리겠으며 한낮에도 선선할 것으로 보인다.기상청은 5일 전국이 대체로 흐리겠다고 예보했다.수도권과 강원 영서, 충청권, 경상 서부 내륙에 가끔... 문경과 트빌리시 ‘고요하고 기나긴 음성+기다림’전 개최 10 문경과 트빌리시 ‘고요하고 기나긴 음성+기다림’전 개최 ‘고요하고 기나긴 음성+기다림’을 주제로 이 10월 8일부터 내년 3월 10일까지 문경새재관리사무소 옛길박물관에서 열린다.한국과 조지아 수교 30주년을 기념, 경북 문경시와 조지아... 여성신문 친구되기 페이스북 트위터 Tweets by wnewskr About Us 여성신문 소개 구독 및 후원하기 기사제보 문의 불편신고 개인정보취급방침 RSS English Information (주)여성신문사 대표이사 : 김효선 서울특별시 종로구 삼일대로 447 부남빌딩 8층 대표전화 : 02-318-9300 팩스 : 02-752-0549 사업자등록번호 : 214-81-03304 여성신문 발행·편집인 : 김효선 청소년보호책임자 : 신준철 등록번호 : 서울-다06480 등록일 : 1988-04-30 Membership 로그인 회원가입 아이디·비밀번호찾기 Related Sites 여성마라톤대회 히포시코리아 여성문화네트워크 양성평등문화상 여성신문 트위터 여성신문 페이스북 여성신문 유튜브 여성신문의 영상·기사·사진 등 모든 콘텐츠의 지적재산권은 여성신문에 있으며 관련법의 보호를 받습니다. Copyright 2022 (주)여성신문사. All rights reserved. mail to admin@womennews.co.kr 위로</t>
+  </si>
+  <si>
+    <t>연합뉴스TV 본문으로 바로가기 연합뉴스TV 주메뉴 뉴스 뉴스 헤드라인 최신 정치 경제 사회 스포츠 문화·연예 지역 세계 날씨 제보 제보 제보하기 제보영상 뉴스피드 뉴스피드 뉴스뷰 출근길 인터뷰 정치五감 여의도 SNS 명품 리포트 바스켓톡 월드줌 월드줌 France24 프로그램 프로그램 뉴스프로그램 Y-Story 보도국 보도국 앵커 · 아나운서 기상 · 뉴스 캐스터 라이프 라이프 건강 취업 검색 검색 자동완성 열기 검색 자동완성 끄기 인기검색어 검색닫기 라이브 다시보기 다시듣기 Close 제주도 여행 25인승 관광버스 넘어져…연휴 사건ㆍ사고 사회 제주도 여행 25인승 관광버스 넘어져…연휴 사건ㆍ사고 송고시간 2017-10-05 18:19:59 좋아요 0 공유하기 확대하기 축소하기 이전 다음 공유하기 카카오톡 카카오스토리 페이스북 트위터 네이버블로그 네이버밴드 복사 닫기 브라우저가 video 태그를 지원하지 않습니다. 죄송하지만 다른 브라우저를 사용하여 주십시오. 닫기 제주도 여행 25인승 관광버스 넘어져…연휴 사건ㆍ사고[뉴스리뷰][앵커]명절 연휴에도 전국에선 사건사고가 이어졌습니다.25인승 관광버스가 돌덩이를 피하려다 도로 옆으로 굴러떨어져 19명이 다치는가 하면 실종자를 수색하던 경찰관이 절벽에서 떨어져 중상을 입었습니다.김지수 기자입니다.[기자]비탈길 옆 버스가 넘어져 있고 소방대원들과 경찰은 주변 수습에 바쁩니다.오늘(5일) 오전 9시 40분쯤 제주시 애월읍 고성리 평화로에서 25인승 관광버스가 도로를 벗어나 옆으로 넘어졌습니다.이 사고로 관광버스에 타고 있던 20명 중 운전사 71살 강 모 씨를 제외한 60살 김 모 씨 등 19명이 부상을 입고 병원으로 옮겨졌습니다.김 씨 등은 안산에서 제주로 관광을 온 가족 단위 관광객들로 알려졌습니다.경찰은 "도로 위에 돌덩이를 피하려다 도로 가장자리와 충돌한 후 버스가 넘어졌다"는 운전사 강 씨의 진술을 바탕으로 정확한 사고 경위를 조사 중입니다.오늘 오전 5시 40분쯤 제주 동부경찰서 소속 추자파출소장 52살 박 모 경감이 실종자 수색작업 중 절벽에서 추락했습니다.박 경감은 하추자도에 있는 돈대산 절벽에서 발을 헛디뎌 떨어졌고 크게 다쳐 헬기를 이용해 병원으로 옮겨졌습니다.박 경감은 실종자를 찾기 위해 하추자도 돈대산을 둘러보다 사고를 당한 것으로 알려졌습니다.차량 앞 부분이 형체를 알아 볼 수 없게 찌그러졌습니다.오늘 오전 7시15분쯤 경남 창원시 의창구 서상동 도로에서 25살 조 모 씨가 몰던 승용차가 길을 가던 58살 정 모 씨와 인근 현금지급기를 잇달아 들이받았습니다.이 사고로 정 씨는 숨지고 차량 운전자 조 씨는 경상을 입었습니다.경찰은 졸음운전 여부 등을 포함 정확한 사고 원인을 조사하고 있습니다.연합뉴스TV 김지수입니다.연합뉴스TV : 02-398-4441(기사문의·제보) 카톡/라인 jebo23(끝) 정치 리설주, 북한군 미사일 발사장에 첫 등장 경제 유통업 경기 전망 '뚝'…글로벌 금융위기 수준 사회 검찰, '위례신도시 분양대행' 이기성 씨 소환 세계 베네수엘라, 폭우에 최소 25명 사망·52명 실종 뉴스 헤드라인 최신 정치 경제 사회 스포츠 문화·연예 지역 세계 날씨 프로그램 뉴스프로그램 Y-Story 뉴스피드 뉴스뷰 출근길 인터뷰 정치五감 여의도 SNS 명품 리포트 바스켓톡 제보 제보하기 제보영상 라이프 건강 취업 Fun&amp;Fun 보도국 앵커 · 아나운서 기상 · 뉴스 캐스터 회사소개 연합뉴스TV소개 주요경영현황 조직운영방침 윤리강령 CEO인사말 연혁 위치안내 시청자참여 시청자위원회 시청자평가원 시청자VOC 고충처리인 시청자게시판 광고/비즈니스 TV광고 온라인(웹)광고 사업제휴 문화사업 영상판매 공지사항 편성규약 큐톤안내 채널안내 개인정보처리방침 RSS서비스 모바일APP 페이스북 트위터 유튜브 (주)연합뉴스TV 서울특별시 종로구 율곡로 2길(수송동) 대표자 : 성기홍 대표전화 : 02-398-7800 사업자등록번호 : 101-86-62619 Copyright 2019 © 연합뉴스TV :: 대한민국 뉴스의 시작. 채널 23 All rights reserved. 모든 콘텐츠(기사)는 저작권법의 보호를 받은바, 무단 전재·복사·배포를 금합니다. Family site 연합뉴스 연합인포맥스</t>
+  </si>
+  <si>
+    <t>연합뉴스TV 본문으로 바로가기 연합뉴스TV 주메뉴 뉴스 뉴스 헤드라인 최신 정치 경제 사회 스포츠 문화·연예 지역 세계 날씨 제보 제보 제보하기 제보영상 뉴스피드 뉴스피드 뉴스뷰 출근길 인터뷰 정치五감 여의도 SNS 명품 리포트 바스켓톡 월드줌 월드줌 France24 프로그램 프로그램 뉴스프로그램 Y-Story 보도국 보도국 앵커 · 아나운서 기상 · 뉴스 캐스터 라이프 라이프 건강 취업 검색 검색 자동완성 열기 검색 자동완성 끄기 인기검색어 검색닫기 라이브 다시보기 다시듣기 Close 제주도 여행 25인승 관광버스 넘어져…연휴 사건ㆍ사고 사회 제주도 여행 25인승 관광버스 넘어져…연휴 사건ㆍ사고 송고시간 2017-10-05 18:03:56 좋아요 0 공유하기 확대하기 축소하기 이전 다음 공유하기 카카오톡 카카오스토리 페이스북 트위터 네이버블로그 네이버밴드 복사 닫기 브라우저가 video 태그를 지원하지 않습니다. 죄송하지만 다른 브라우저를 사용하여 주십시오. 닫기 제주도 여행 25인승 관광버스 넘어져…연휴 사건ㆍ사고[앵커]명절 연휴에도 전국에선 사건사고가 이어졌습니다.25인승 관광버스가 돌덩이를 피하려다 도로 옆으로 굴러떨어져 19명이 다치는가 하면 실종자를 수색하던 경찰관이 절벽에서 떨어져 중상을 입었습니다.김지수 기자입니다.[기자]비탈길 옆 버스가 넘어져 있고 소방대원들과 경찰은 주변 수습에 바쁩니다.오늘(5일) 오전 9시 40분쯤 제주시 애월읍 고성리 평화로에서 25인승 관광버스가 도로를 벗어나 옆으로 넘어졌습니다.이 사고로 관광버스에 타고 있던 20명 중 운전사 71살 강 모 씨를 제외한 60살 김 모 씨 등 19명이 부상을 입고 병원으로 옮겨졌습니다.김 씨 등은 안산에서 제주로 관광을 온 가족 단위 관광객들로 알려졌습니다.경찰은 "도로 위에 돌덩이를 피하려다 도로 가장자리와 충돌한 후 버스가 넘어졌다"는 운전사 강 씨의 진술을 바탕으로 정확한 사고 경위를 조사 중입니다.오늘 오전 5시 40분쯤 제주 동부경찰서 소속 추자파출소장 52살 박 모 경감이 실종자 수색작업 중 절벽에서 추락했습니다.박 경감은 하추자도에 있는 돈대산 절벽에서 발을 헛디뎌 떨어졌고 크게 다쳐 헬기를 이용해 병원으로 옮겨졌습니다.박 경감은 실종자를 찾기 위해 하추자도 돈대산을 둘러보다 사고를 당한 것으로 알려졌습니다.차량 앞 부분이 형체를 알아 볼 수 없게 찌그러졌습니다.오늘 오전 7시15분쯤 경남 창원시 의창구 서상동 도로에서 25살 조 모 씨가 몰던 승용차가 길을 가던 58살 정 모 씨와 인근 현금지급기를 잇달아 들이받았습니다.이 사고로 정 씨는 숨지고 차량 운전자 조 씨는 경상을 입었습니다.경찰은 졸음운전 여부 등을 포함 정확한 사고 원인을 조사하고 있습니다.연합뉴스TV 김지수입니다.연합뉴스TV : 02-398-4441(기사문의·제보) 카톡/라인 jebo23(끝) 정치 리설주, 북한군 미사일 발사장에 첫 등장 경제 유통업 경기 전망 '뚝'…글로벌 금융위기 수준 사회 검찰, '위례신도시 분양대행' 이기성 씨 소환 세계 베네수엘라, 폭우에 최소 25명 사망·52명 실종 뉴스 헤드라인 최신 정치 경제 사회 스포츠 문화·연예 지역 세계 날씨 프로그램 뉴스프로그램 Y-Story 뉴스피드 뉴스뷰 출근길 인터뷰 정치五감 여의도 SNS 명품 리포트 바스켓톡 제보 제보하기 제보영상 라이프 건강 취업 Fun&amp;Fun 보도국 앵커 · 아나운서 기상 · 뉴스 캐스터 회사소개 연합뉴스TV소개 주요경영현황 조직운영방침 윤리강령 CEO인사말 연혁 위치안내 시청자참여 시청자위원회 시청자평가원 시청자VOC 고충처리인 시청자게시판 광고/비즈니스 TV광고 온라인(웹)광고 사업제휴 문화사업 영상판매 공지사항 편성규약 큐톤안내 채널안내 개인정보처리방침 RSS서비스 모바일APP 페이스북 트위터 유튜브 (주)연합뉴스TV 서울특별시 종로구 율곡로 2길(수송동) 대표자 : 성기홍 대표전화 : 02-398-7800 사업자등록번호 : 101-86-62619 Copyright 2019 © 연합뉴스TV :: 대한민국 뉴스의 시작. 채널 23 All rights reserved. 모든 콘텐츠(기사)는 저작권법의 보호를 받은바, 무단 전재·복사·배포를 금합니다. Family site 연합뉴스 연합인포맥스</t>
+  </si>
+  <si>
+    <t>카지노 관광진흥기금 소송서 제주도 패소 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:45 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 카지노 관광진흥기금 소송서 제주도 패소 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사회 법원검찰 카지노 관광진흥기금 소송서 제주도 패소 현봉철 기자 승인 2017.10.16 15:24 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주지법 “이전 사업자 매출누락…현재 사업자 제재 부당” [제주일보=현봉철 기자] 제주특별자치도가 매출액을 누락해 신고했다가 국세청에 적발된 도내 유명 카지노에 부과한 제주관광진흥기금 23억원을 못 받을 위기에 처했다.제주지방법원 제1행정부(재판장 김진영 부장판사)는 서귀포시 제주신라호텔에 위치한 마제스타 카지노가 제주도를 상대로 제기한 제주관광진흥기금 부과처분 취소 청구소송에서 원고 승소 판결했다고 16일 밝혔다.재판부는 판결문에서 “관광사업의 양수 등을 규정한 관광진흥법 제8조 1항은 승계대상을 등록이나 신고 등에 수반한 권리·의무에 한정하고 있을 뿐이고, 이를 양도인의 모든 사법상·공법상 행위로 인한 법률효과까지 포함하지는 않는다”며 “카지노 영업의 매출에 기인한 관광진흥개발기금 납부의무가 관광사업의 등록이나 신고 등에 수반되는 권리·의무라고 보기 어렵다”고 밝혔다.이어 “카지노 양수 당시 분식회계를 통해 매출액을 누락한 사실을 알지 못했다면 매출누락 등의 행위를 한 양도인 대신 선의의 양수인에게 제재처분을 하는 것은 부당하다”며 “이 사건 처분은 법률의 근거 없이 이뤄진 처분으로 위법하다”고 강조했다.마제스타 카지노는 2011년 219억원의 매출을 올렸지만 222억원 누락해 총 매출액을 신고했다가 국세청에 적발됐다.이에 제주도는 지난해 11월 누락매출액 222억원에 대한 제주관광진흥기금 23억원을 부과했다.마제스타 카지노 측은 “2012년 카지노를 인수받기 이전에 빚어진 일이기 때문에 현재 사업자에게 관광진흥기금을 부과하는 것은 부당하다”며 지난 2월 소송을 제기했다. 현봉철 기자  hbc@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현봉철 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도, 박홍배 제주관광공사 사장 임명 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:45 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도, 박홍배 제주관광공사 사장 임명 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 박홍배 제주관광공사 사장 임명 홍수영 기자 승인 2017.10.13 18:06 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 13일 도의회 인사청문회서 '적격 판정' 후 이날 사장직에 임명 [제주일보=홍수영 기자] 제4대 제주관광공사 사장으로 박홍배 전 제주특별자치도 특별자치행정국장(60)이 임명됐다.제주도는 13일 박홍배 제주관광공사 사장이 제주도의회 인사청문회에서 ‘적격’ 판단을 받음에 따라 사장직에 임명했다고 밝혔다. 제주도는 제주관광공사 사장 직위가 지난 8월부터 장기 공석인 점을 고려해 조속한 조직 안정 및 당면 현안업무 추진을 위해 이날 바로 박홍배 사장을 임명, 업무 수행에 돌입하도록 했다고 설명했다. 이에 앞서 제주도의회 문화관광스포츠위원회(위원장 김희현•더불어민주당•제주시 일도2동 을)는 이날 박 사장에 대한 인사청문회를 갖고 적격 의견의 심사경과보고서를 채택했다.  문광위는 보고서를 통해 박 사장에 대해 “지난 41년 간 공직생활에서 쌓은 경험과 노하우를 관광분야에 접목하고 관광시장에서 파생되는 다양한 현안사항을 관련 전문가와 협의, 해소해 나간다면 제주관광공사의 경영 위기 극복을 통한 제주관광을 한 단계 더 끌어올릴 수 있을 것”이라고 적격 판단의 이유를 밝혔다. 이어 “다만 박 사장 예정자는 제주관광산업의 문제점을 인식하고 개선 방안을 제시하고 있지만 관광이력 부족 및 전문성 미흡으로 보완이 필요한 것으로 보인다”고 덧붙였다. 박 사장은 이날 모두발언에서 “양적 관광에 치중했던 제주관광의 패러다임을 질적 관광으로 전환하는데 혼신의 노력을 기울이겠다”며 “관광객 만족도와 재방문율을 높이기 위해 제주의 미래 비전에 부합하는 청정, 생태, 미식 등 고부가가치 전략상품 개발을 확대하고 관광종사원 및 도민 친절역량 교육을 강화하겠다”고 말했다. 또 “아세안 10개국을 중심으로 시장다변화, 개별관광객을 위한 관광정보 안내 콘테츠 개발, 전략적 마케팅 활동 강화 등을 추진하겠다”며 “고부가가치를 확대하는 선순환 관광산업 생태계를 구축하고 지역사회와 공유가치를 창출하겠다”고 피력했다. 한편 이날 의원들은 박 사장이 관광분야 경험이 부족한 점을 우려하는 한편 제주관광공사의 시내면세점 집중 투자 등을 개선해 수익 다각화 방안 마련 및 공사로서의 공익사업 강구 등을 잇따라 제기했다. 홍수영 기자  gwin1@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 홍수영 기자 다른기사 보기 관련기사 박홍배 사장 예정자 인사청문 통과 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도 관광협회, 추석연휴 제주방문 환영행사 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 관광협회, 추석연휴 제주방문 환영행사 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 관광협회, 추석연휴 제주방문 환영행사 개최 서한솔 기자 headlinejeju@headlinejeju.co.kr 승인 2017.10.02 12:40 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 추석 연휴를 맞아 2일부터 오는 3일까지 이틀간 공·항만에서 귀성객과 관광객 대상으로 제주방문 환영행사를 개최한다.이 날 환영행사에서는 환영·홍보부스 운영을 통한 환영 기념품을 제공과 함께 현수막 게첩 및  멀티비전을 활용한 제주 방문 환영 메시지 전달이 이뤄진다.또 제주를 방문한 귀성·관광객들의 관광불편을 최소화하기 위해 지난 8월 개편된 대중교통체계에 대한 홍보 및 안내도 진행된다.환영행사에는 제주도와 관광협회 외에도 한국공항공사 제주지역본부, 한국해운조합 제주지부 등이 참여한다.한편, 이번 추석연휴 간 약 51만 여명의 귀성객 및 관광객이 제주를 방문할 것으로 예상되고 있다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 서한솔 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 관광버스 전복...인명피해는 없어 &lt; 사회 &lt; 기사본문 - BBS NEWS 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-11 11:37 (화) 로그인 회원가입 BBS불교방송 홈페이지 바로가기 상세검색 facebook twitter kakaostory youtube 전체 경제 정치 제 20대 대통령 선거 사회 문화ㆍ스포츠 불교 국제 전국 BBS 인터뷰 BBS 칼럼 BBS 취재수첩 BBS PLAZA 인사/부고 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 관광버스 전복...인명피해는 없어 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 제주도 관광버스 전복...인명피해는 없어 기자명 유민지 인턴기자 입력 2017.10.05 13:10 수정 2017.10.05 13:20 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도에서 관광버스가 옆으로 넘어지는 사고가 발생했습니다.오늘 오전 9시 37분쯤 제주시 애월읍 고성리 평화의섬 교회 동측 도로에서 어린아이와 어른 등 20명을 태우고 달리던 관광버스가 전복됐습니다.이 사고로 승객 19명과 버스 기사가 경상을 입고 인근 병원에서 치료를 받고 있습니다.경찰은 운전자 등을 상대로 정확한 사고 경위를 조사하고 있습니다. 유민지 인턴기자 bbsnews@bbsi.co.kr 다른기사 보기 저작권자 © BBS NEWS 무단전재 및 재배포 금지 당신만 안 본 뉴스 정토사회문화회관 개관, '사회공헌·포교'의 전당 ‘모두의 행복 발원’ 영평사에서 낙화전통문화축제 서울의 첫 수도 "한성백제문화제"...9/30~10/3 올림픽공원에서 공군 블랙이글스, 한강공원 에어쇼 우천으로 취소 미륵도량 봉덕사 "희망의 노래 전통차 축전" "건강한 자연 음식을"...봉녕사 사찰음식 대향연 개막 조계종 제37대 총무원장 진우스님 5일 취임 법회...BBS 생중계 정토사회문화회관 개관, '사회공헌·포교'의 전당 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 복지시스템 개통 1달만에 오류 접수 10만건 쇄도…하루 5천여건 접수 [코로나19]신규확진 1만명대...오늘부터 개량백신 접종 시작 최신뉴스 국제 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 전국 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 지방사 인터뷰 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 사회 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 경제 복지시스템 개통 1달만에 오류 접수 10만건 쇄도…하루 5천여건 접수 포토뉴스 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 인기뉴스 1 조계종 제6대 군종교구장에 능원스님 단독 추천 2 관음성지 양양 낙산사, 가을 맞이 사찰음식 나눔 잔치 3 무주 일가족 사상사고...보일러 배기관 막혀 4 러시아, 우크라 전역에 미사일 보복 공습...백여명 사상 5 [뉴스파노라마 한글날 특집] 김영수 관장 "한글, 한국문화 직조하는 씨줄 날줄...귀하게 여겨 잘 썼으면" 6 '하루가 멀다 하고 또'…충북 교육계 성추문 얼룩 7 조계종 제18대 직능대표와 비구니 중앙종회의원 30명 선출 8 은해사 창건 1213주년, 해인사 창건 1220주년.....개산 기념 문화 행사 풍성 BBS 칼럼 전경윤의 ‘세상살이’ 전영신의 ‘시선’ 신두식의 ‘공감노트’ 배재수의 ‘크로키’ 이현구의 ‘스윗 스팟’ 선임기자 칼럼 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 BBS불교방송(재) 서울특별시 마포구 마포대로 20 (다보빌딩) 대표전화 : 02-705-5114 팩스 : 02-705-5229 청소년보호책임자 : 배재수 제호 : BBS NEWS 등록번호 : 서울 아 01259 등록일 : 2010-06-03 발행일 : 2001-09-01 발행인 : 서주영(금호) 편집인 : 전경윤 BBS NEWS 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 BBS NEWS. All rights reserved. mail to webmaster@bbsi.co.kr 위로 전체메뉴 전체기사 경제 정치 전체 20대 국회 국정감사 트럼프 당선 2017 국회 국정감사 2018 남북정상회담 6.12 북미 정상회담 제7회 전국동시지방선거 2차 북미정상회담 21대 국회의원 총선거 제20대 대통령 선거 제8회 전국동시지방선거 사회 전체 2018학년도 대입 수능 뉴스줌인 인터넷 야단법석 문화ㆍ스포츠 전체 2016 리우올림픽 2018 동계올림픽 2018 동계 패럴림픽 2018 러시아월드컵 2018 아시안게임 2020 도쿄올림픽 불교 전체 2018 무술년 신년인사 스리랑카 대통령 방한 제35대 총무원장 설정스님 2017 올해의 사자성어 당신이 연꽃입니다 기획보도 전통사찰을 가다 단박인터뷰 2018 부처님 오신날 2019 차문화대축제 3.1운동 100주년 월주 대종사 원적 2021 신축년 불교계 플랜 국제 전국 전체 전국네트워크 BBS 인터뷰 전체 BBS 전영신의 아침저널 BBS 뉴스파노라마 지방사 인터뷰 BBS 화쟁토론 BBS 경제토크 BBS 뉴스와 사람들 BBS 기획/단독 BBS 칼럼 전체 박경수의 '삼개나루' 전영신의 '시선' 신두식의 '공감노트' 배재수의 '크로키' 전경윤의 '세상살이' 선임기자 칼럼 이현구의 '북악산 자락' 권예진의 거꾸로 세상보기 양창욱의 ‘야단법석(野壇法席)’ 명사 칼럼 김호준의 '내시경' 이현구의 스윗 스팟 BBS 취재수첩 BBS 개국 30주년 BBS 장군죽비 BBS PLAZA 인사/부고 기타 BBS 라디오 TV 알찬뉴스 지난 뉴스 다시보기 이전기사 전체메뉴닫기</t>
   </si>
 </sst>
 </file>
@@ -434,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -467,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -478,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -489,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -500,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -508,10 +562,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -519,10 +573,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -530,10 +584,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -541,10 +595,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -552,10 +606,120 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>20</v>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
